--- a/Election_results_by_state.xlsx
+++ b/Election_results_by_state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donald\Dropbox\Public\MyData\Datasets\Election_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAA5018-0903-4535-932A-AC5482E7B043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51436AFD-56C9-431E-84FB-A182EF6DBC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BC1469EC-111D-46A2-8483-D7126A20285D}"/>
+    <workbookView xWindow="31215" yWindow="990" windowWidth="19500" windowHeight="11670" xr2:uid="{BC1469EC-111D-46A2-8483-D7126A20285D}"/>
   </bookViews>
   <sheets>
     <sheet name="2016_by_state" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="260">
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>Source(s)</t>
   </si>
   <si>
@@ -1414,6 +1411,9 @@
   </si>
   <si>
     <t>Nebraska</t>
+  </si>
+  <si>
+    <t>state</t>
   </si>
 </sst>
 </file>
@@ -5207,8 +5207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EEF49D-993D-452A-8E56-7959A1A870DD}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5220,75 +5220,75 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="T1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="30">
         <v>3</v>
@@ -5339,18 +5339,18 @@
         <v>318608</v>
       </c>
       <c r="T2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="30">
         <v>9</v>
@@ -5401,18 +5401,18 @@
         <v>2123372</v>
       </c>
       <c r="T3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>4</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="30">
         <v>6</v>
@@ -5467,18 +5467,18 @@
         <v>1130635</v>
       </c>
       <c r="T4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="30">
         <v>11</v>
@@ -5533,18 +5533,18 @@
         <v>2573165</v>
       </c>
       <c r="T5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="29">
         <v>55</v>
@@ -5599,18 +5599,18 @@
         <v>14181595</v>
       </c>
       <c r="T6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="29">
         <v>9</v>
@@ -5665,18 +5665,18 @@
         <v>2780247</v>
       </c>
       <c r="T7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="29">
         <v>7</v>
@@ -5731,18 +5731,18 @@
         <v>1644920</v>
       </c>
       <c r="T8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="29">
         <v>3</v>
@@ -5793,18 +5793,18 @@
         <v>311268</v>
       </c>
       <c r="T9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="29">
         <v>3</v>
@@ -5859,18 +5859,18 @@
         <v>443814</v>
       </c>
       <c r="T10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="30">
         <v>29</v>
@@ -5921,18 +5921,18 @@
         <v>9420039</v>
       </c>
       <c r="T11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="30">
         <v>16</v>
@@ -5987,18 +5987,18 @@
         <v>4114732</v>
       </c>
       <c r="T12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="29">
         <v>3</v>
@@ -6049,18 +6049,18 @@
         <v>428937</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="30">
         <v>6</v>
@@ -6115,18 +6115,18 @@
         <v>1566031</v>
       </c>
       <c r="T14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="30">
         <v>4</v>
@@ -6181,18 +6181,18 @@
         <v>690255</v>
       </c>
       <c r="T15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="29">
         <v>20</v>
@@ -6247,18 +6247,18 @@
         <v>5536424</v>
       </c>
       <c r="T16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="30">
         <v>11</v>
@@ -6309,18 +6309,18 @@
         <v>2734958</v>
       </c>
       <c r="T17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="30">
         <v>6</v>
@@ -6375,18 +6375,18 @@
         <v>1184402</v>
       </c>
       <c r="T18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U18" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="30">
         <v>8</v>
@@ -6441,18 +6441,18 @@
         <v>1924149</v>
       </c>
       <c r="T19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U19" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="30">
         <v>8</v>
@@ -6507,18 +6507,18 @@
         <v>2029032</v>
       </c>
       <c r="T20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="29">
         <v>11</v>
@@ -6573,18 +6573,18 @@
         <v>3325046</v>
       </c>
       <c r="T21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="U21" s="42" t="s">
         <v>72</v>
-      </c>
-      <c r="U21" s="42" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="29">
         <v>10</v>
@@ -6639,18 +6639,18 @@
         <v>2781446</v>
       </c>
       <c r="T22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="U22" s="41" t="s">
         <v>69</v>
-      </c>
-      <c r="U22" s="41" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="C23" s="29">
         <v>2</v>
@@ -6705,18 +6705,18 @@
         <v>747927</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
@@ -6771,16 +6771,16 @@
         <v>394329</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U24" s="15"/>
     </row>
     <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="30">
         <v>1</v>
@@ -6835,18 +6835,18 @@
         <v>353416</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="30">
         <v>16</v>
@@ -6901,18 +6901,18 @@
         <v>4799284</v>
       </c>
       <c r="T26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U26" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="29">
         <v>10</v>
@@ -6967,18 +6967,18 @@
         <v>2944813</v>
       </c>
       <c r="T27" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="U27" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="30">
         <v>10</v>
@@ -7033,18 +7033,18 @@
         <v>2808605</v>
       </c>
       <c r="T28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="30">
         <v>6</v>
@@ -7095,18 +7095,18 @@
         <v>1209357</v>
       </c>
       <c r="T29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="U29" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="30">
         <v>3</v>
@@ -7161,18 +7161,18 @@
         <v>497147</v>
       </c>
       <c r="T30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="U30" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="U30" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="30">
         <v>15</v>
@@ -7223,18 +7223,18 @@
         <v>4741564</v>
       </c>
       <c r="T31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="U31" s="31" t="s">
         <v>114</v>
-      </c>
-      <c r="U31" s="31" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="30">
         <v>3</v>
@@ -7285,18 +7285,18 @@
         <v>344360</v>
       </c>
       <c r="T32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="U32" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="U32" s="27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="30">
         <v>2</v>
@@ -7347,18 +7347,18 @@
         <v>844227</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U33" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="C34" s="30">
         <v>1</v>
@@ -7409,16 +7409,16 @@
         <v>282338</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U34" s="28"/>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="30">
         <v>1</v>
@@ -7469,16 +7469,16 @@
         <v>291680</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="30">
         <v>1</v>
@@ -7529,16 +7529,16 @@
         <v>270109</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="29">
         <v>4</v>
@@ -7593,18 +7593,18 @@
         <v>744296</v>
       </c>
       <c r="T37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="U37" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="29">
         <v>14</v>
@@ -7655,18 +7655,18 @@
         <v>3874046</v>
       </c>
       <c r="T38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="U38" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="U38" s="16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="29">
         <v>5</v>
@@ -7721,18 +7721,18 @@
         <v>798319</v>
       </c>
       <c r="T39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="U39" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="U39" s="16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="29">
         <v>6</v>
@@ -7779,18 +7779,18 @@
         <v>1125385</v>
       </c>
       <c r="T40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="U40" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="U40" s="16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="29">
         <v>29</v>
@@ -7845,18 +7845,18 @@
         <v>7721453</v>
       </c>
       <c r="T41" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="U41" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="U41" s="16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="30">
         <v>18</v>
@@ -7911,18 +7911,18 @@
         <v>5496487</v>
       </c>
       <c r="T42" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="U42" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="U42" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="30">
         <v>7</v>
@@ -7950,10 +7950,10 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P43" s="7">
         <v>528761</v>
@@ -7969,18 +7969,18 @@
         <v>1452992</v>
       </c>
       <c r="T43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U43" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="U43" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="29">
         <v>7</v>
@@ -8031,18 +8031,18 @@
         <v>2001336</v>
       </c>
       <c r="T44" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="U44" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="U44" s="16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="30">
         <v>20</v>
@@ -8097,18 +8097,18 @@
         <v>6165478</v>
       </c>
       <c r="T45" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U45" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="U45" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="29">
         <v>4</v>
@@ -8163,18 +8163,18 @@
         <v>464144</v>
       </c>
       <c r="T46" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="U46" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="U46" s="16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="30">
         <v>9</v>
@@ -8229,18 +8229,18 @@
         <v>2103027</v>
       </c>
       <c r="T47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="U47" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="U47" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="30">
         <v>3</v>
@@ -8287,18 +8287,18 @@
         <v>370093</v>
       </c>
       <c r="T48" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="U48" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="U48" s="10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="30">
         <v>11</v>
@@ -8353,18 +8353,18 @@
         <v>2508027</v>
       </c>
       <c r="T49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="U49" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="U49" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="30">
         <v>36</v>
@@ -8419,18 +8419,18 @@
         <v>8969226</v>
       </c>
       <c r="T50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="U50" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="U50" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" s="30">
         <v>6</v>
@@ -8485,18 +8485,18 @@
         <v>1131430</v>
       </c>
       <c r="T51" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="U51" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="29">
         <v>13</v>
@@ -8551,18 +8551,18 @@
         <v>3984631</v>
       </c>
       <c r="T52" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="U52" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="U52" s="16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="29">
         <v>3</v>
@@ -8617,18 +8617,18 @@
         <v>315067</v>
       </c>
       <c r="T53" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="U53" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="U53" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="29">
         <v>8</v>
@@ -8679,18 +8679,18 @@
         <v>3317019</v>
       </c>
       <c r="T54" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="U54" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="U54" s="16" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="30">
         <v>10</v>
@@ -8745,18 +8745,18 @@
         <v>2976150</v>
       </c>
       <c r="T55" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="U55" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="U55" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="30">
         <v>5</v>
@@ -8811,18 +8811,18 @@
         <v>714423</v>
       </c>
       <c r="T56" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="U56" s="10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="30">
         <v>3</v>
@@ -8873,15 +8873,15 @@
         <v>255849</v>
       </c>
       <c r="T57" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="U57" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="U57" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -8932,7 +8932,7 @@
         <v>136669276</v>
       </c>
       <c r="T58" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U58" s="1"/>
     </row>
@@ -9057,7 +9057,7 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9067,57 +9067,57 @@
   <sheetData>
     <row r="1" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" s="7">
         <v>122640</v>
@@ -9156,19 +9156,19 @@
         <v>-0.1399</v>
       </c>
       <c r="N2" s="8">
-        <f>M2-$M$58</f>
+        <f t="shared" ref="N2:N33" si="0">M2-$M$58</f>
         <v>-0.17849999999999999</v>
       </c>
       <c r="O2" s="7">
         <v>300495</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="7">
         <v>795696</v>
@@ -9207,19 +9207,19 @@
         <v>-0.22189999999999999</v>
       </c>
       <c r="N3" s="8">
-        <f>M3-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.26050000000000001</v>
       </c>
       <c r="O3" s="7">
         <v>2074338</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="7">
         <v>394409</v>
@@ -9258,19 +9258,19 @@
         <v>-0.2369</v>
       </c>
       <c r="N4" s="8">
-        <f>M4-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.27550000000000002</v>
       </c>
       <c r="O4" s="7">
         <v>1069468</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="7">
         <v>1025232</v>
@@ -9309,19 +9309,19 @@
         <v>-9.06E-2</v>
       </c>
       <c r="N5" s="8">
-        <f>M5-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.12920000000000001</v>
       </c>
       <c r="O5" s="7">
         <v>2299254</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="13">
         <v>7854285</v>
@@ -9360,19 +9360,19 @@
         <v>0.23119999999999999</v>
       </c>
       <c r="N6" s="14">
-        <f>M6-$M$58</f>
+        <f t="shared" si="0"/>
         <v>0.19259999999999999</v>
       </c>
       <c r="O6" s="13">
         <v>13038547</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="13">
         <v>1323101</v>
@@ -9411,19 +9411,19 @@
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="N7" s="14">
-        <f>M7-$M$58</f>
+        <f t="shared" si="0"/>
         <v>1.5099999999999995E-2</v>
       </c>
       <c r="O7" s="13">
         <v>2569518</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="13">
         <v>905083</v>
@@ -9462,19 +9462,19 @@
         <v>0.17330000000000001</v>
       </c>
       <c r="N8" s="14">
-        <f>M8-$M$58</f>
+        <f t="shared" si="0"/>
         <v>0.13470000000000001</v>
       </c>
       <c r="O8" s="13">
         <v>1558960</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="13">
         <v>267070</v>
@@ -9513,19 +9513,19 @@
         <v>0.83630000000000004</v>
       </c>
       <c r="N9" s="14">
-        <f>M9-$M$58</f>
+        <f t="shared" si="0"/>
         <v>0.79770000000000008</v>
       </c>
       <c r="O9" s="13">
         <v>293764</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="13">
         <v>242584</v>
@@ -9564,19 +9564,19 @@
         <v>0.18629999999999999</v>
       </c>
       <c r="N10" s="14">
-        <f>M10-$M$58</f>
+        <f t="shared" si="0"/>
         <v>0.1477</v>
       </c>
       <c r="O10" s="13">
         <v>413921</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="13">
         <v>4237756</v>
@@ -9615,19 +9615,19 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="N11" s="14">
-        <f>M11-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-2.98E-2</v>
       </c>
       <c r="O11" s="13">
         <v>8474179</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="7">
         <v>1773827</v>
@@ -9666,19 +9666,19 @@
         <v>-7.8200000000000006E-2</v>
       </c>
       <c r="N12" s="8">
-        <f>M12-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.11680000000000001</v>
       </c>
       <c r="O12" s="7">
         <v>3900050</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="13">
         <v>306658</v>
@@ -9718,19 +9718,19 @@
         <v>0.42709999999999998</v>
       </c>
       <c r="N13" s="14">
-        <f>M13-$M$58</f>
+        <f t="shared" si="0"/>
         <v>0.38849999999999996</v>
       </c>
       <c r="O13" s="13">
         <v>434697</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="13">
         <v>822544</v>
@@ -9769,19 +9769,19 @@
         <v>5.8099999999999999E-2</v>
       </c>
       <c r="N14" s="14">
-        <f>M14-$M$58</f>
+        <f t="shared" si="0"/>
         <v>1.9499999999999997E-2</v>
       </c>
       <c r="O14" s="13">
         <v>1582180</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="7">
         <v>212787</v>
@@ -9820,19 +9820,19 @@
         <v>-0.31909999999999999</v>
       </c>
       <c r="N15" s="8">
-        <f>M15-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.35770000000000002</v>
       </c>
       <c r="O15" s="7">
         <v>652274</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="13">
         <v>3019512</v>
@@ -9871,19 +9871,19 @@
         <v>0.16869999999999999</v>
       </c>
       <c r="N16" s="14">
-        <f>M16-$M$58</f>
+        <f t="shared" si="0"/>
         <v>0.13009999999999999</v>
       </c>
       <c r="O16" s="13">
         <v>5242014</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="7">
         <v>1152887</v>
@@ -9922,19 +9922,19 @@
         <v>-0.10199999999999999</v>
       </c>
       <c r="N17" s="8">
-        <f>M17-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.1406</v>
       </c>
       <c r="O17" s="7">
         <v>2624534</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="7">
         <v>440726</v>
@@ -9973,19 +9973,19 @@
         <v>-0.2172</v>
       </c>
       <c r="N18" s="8">
-        <f>M18-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.25580000000000003</v>
       </c>
       <c r="O18" s="7">
         <v>1159971</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="7">
         <v>679370</v>
@@ -10024,19 +10024,19 @@
         <v>-0.22689999999999999</v>
       </c>
       <c r="N19" s="8">
-        <f>M19-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.26550000000000001</v>
       </c>
       <c r="O19" s="7">
         <v>1797212</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" s="7">
         <v>809141</v>
@@ -10075,19 +10075,19 @@
         <v>-0.1721</v>
       </c>
       <c r="N20" s="8">
-        <f>M20-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.2107</v>
       </c>
       <c r="O20" s="7">
         <v>1994065</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="13">
         <v>1921290</v>
@@ -10126,19 +10126,19 @@
         <v>0.23139999999999999</v>
       </c>
       <c r="N21" s="14">
-        <f>M21-$M$58</f>
+        <f t="shared" si="0"/>
         <v>0.1928</v>
       </c>
       <c r="O21" s="13">
         <v>3167767</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" s="13">
         <v>1677844</v>
@@ -10177,19 +10177,19 @@
         <v>0.26079999999999998</v>
       </c>
       <c r="N22" s="14">
-        <f>M22-$M$58</f>
+        <f t="shared" si="0"/>
         <v>0.22219999999999998</v>
       </c>
       <c r="O22" s="13">
         <v>2707327</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="13">
         <v>401306</v>
@@ -10228,19 +10228,19 @@
         <v>0.15290000000000001</v>
       </c>
       <c r="N23" s="14">
-        <f>M23-$M$58</f>
+        <f t="shared" si="0"/>
         <v>0.11430000000000001</v>
       </c>
       <c r="O23" s="13">
         <v>713180</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="35">
         <v>223035</v>
@@ -10283,19 +10283,19 @@
         <v>0.21390000000000003</v>
       </c>
       <c r="N24" s="14">
-        <f>M24-$M$58</f>
+        <f t="shared" si="0"/>
         <v>0.17530000000000004</v>
       </c>
       <c r="O24" s="35">
         <v>374419</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="35">
         <v>177998</v>
@@ -10338,19 +10338,19 @@
         <v>8.5600000000000009E-2</v>
       </c>
       <c r="N25" s="14">
-        <f>M25-$M$58</f>
+        <f t="shared" si="0"/>
         <v>4.7000000000000007E-2</v>
       </c>
       <c r="O25" s="35">
         <v>336226</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="13">
         <v>2564569</v>
@@ -10389,19 +10389,19 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="N26" s="14">
-        <f>M26-$M$58</f>
+        <f t="shared" si="0"/>
         <v>5.6399999999999999E-2</v>
       </c>
       <c r="O26" s="13">
         <v>4730961</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="13">
         <v>1546167</v>
@@ -10440,19 +10440,19 @@
         <v>7.6899999999999996E-2</v>
       </c>
       <c r="N27" s="14">
-        <f>M27-$M$58</f>
+        <f t="shared" si="0"/>
         <v>3.8299999999999994E-2</v>
       </c>
       <c r="O27" s="13">
         <v>2936561</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="7">
         <v>1223796</v>
@@ -10487,19 +10487,19 @@
         <v>-9.3799999999999994E-2</v>
       </c>
       <c r="N28" s="8">
-        <f>M28-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.13239999999999999</v>
       </c>
       <c r="O28" s="7">
         <v>2757323</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="7">
         <v>562949</v>
@@ -10538,19 +10538,19 @@
         <v>-0.115</v>
       </c>
       <c r="N29" s="8">
-        <f>M29-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.15360000000000001</v>
       </c>
       <c r="O29" s="7">
         <v>1285584</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B30" s="7">
         <v>201839</v>
@@ -10585,19 +10585,19 @@
         <v>-0.13650000000000001</v>
       </c>
       <c r="N30" s="8">
-        <f>M30-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.17510000000000001</v>
       </c>
       <c r="O30" s="7">
         <v>484048</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B31" s="7">
         <v>2178391</v>
@@ -10632,19 +10632,19 @@
         <v>-2.0400000000000001E-2</v>
       </c>
       <c r="N31" s="8">
-        <f>M31-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-5.9000000000000004E-2</v>
       </c>
       <c r="O31" s="7">
         <v>4505372</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B32" s="7">
         <v>124827</v>
@@ -10683,19 +10683,19 @@
         <v>-0.1963</v>
       </c>
       <c r="N32" s="8">
-        <f>M32-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.2349</v>
       </c>
       <c r="O32" s="7">
         <v>322627</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B33" s="7">
         <v>302081</v>
@@ -10730,19 +10730,19 @@
         <v>-0.21779999999999999</v>
       </c>
       <c r="N33" s="8">
-        <f>M33-$M$58</f>
+        <f t="shared" si="0"/>
         <v>-0.25640000000000002</v>
       </c>
       <c r="O33" s="7">
         <v>794379</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="38">
         <v>108082</v>
@@ -10777,27 +10777,27 @@
         <v>2.8786001390190092E-3</v>
       </c>
       <c r="L34" s="13">
-        <f>D34-B34</f>
+        <f t="shared" ref="L34:M36" si="1">D34-B34</f>
         <v>43939</v>
       </c>
       <c r="M34" s="14">
-        <f>E34-C34</f>
+        <f t="shared" si="1"/>
         <v>0.16600000000000004</v>
       </c>
       <c r="N34" s="14">
-        <f>M34-$M$58</f>
+        <f t="shared" ref="N34:N65" si="2">M34-$M$58</f>
         <v>0.12740000000000004</v>
       </c>
       <c r="O34" s="38">
         <v>264712</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="38">
         <v>121889</v>
@@ -10832,27 +10832,27 @@
         <v>1.7583521728208992E-3</v>
       </c>
       <c r="L35" s="13">
-        <f>D35-B35</f>
+        <f t="shared" si="1"/>
         <v>19087</v>
       </c>
       <c r="M35" s="14">
-        <f>E35-C35</f>
+        <f t="shared" si="1"/>
         <v>7.1499999999999952E-2</v>
       </c>
       <c r="N35" s="14">
-        <f>M35-$M$58</f>
+        <f t="shared" si="2"/>
         <v>3.289999999999995E-2</v>
       </c>
       <c r="O35" s="38">
         <v>266727</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="38">
         <v>72110</v>
@@ -10887,27 +10887,27 @@
         <v>4.5404921631182421E-3</v>
       </c>
       <c r="L36" s="13">
-        <f>D36-B36</f>
+        <f t="shared" si="1"/>
         <v>109957</v>
       </c>
       <c r="M36" s="14">
-        <f>E36-C36</f>
+        <f t="shared" si="1"/>
         <v>0.42420000000000002</v>
       </c>
       <c r="N36" s="14">
-        <f>M36-$M$58</f>
+        <f t="shared" si="2"/>
         <v>0.3856</v>
       </c>
       <c r="O36" s="38">
         <v>259223</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B37" s="13">
         <v>369561</v>
@@ -10946,19 +10946,19 @@
         <v>5.5800000000000002E-2</v>
       </c>
       <c r="N37" s="14">
-        <f>M37-$M$58</f>
+        <f t="shared" si="2"/>
         <v>1.72E-2</v>
       </c>
       <c r="O37" s="13">
         <v>710972</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B38" s="13">
         <v>2125101</v>
@@ -10997,19 +10997,19 @@
         <v>0.17810000000000001</v>
       </c>
       <c r="N38" s="14">
-        <f>M38-$M$58</f>
+        <f t="shared" si="2"/>
         <v>0.13950000000000001</v>
       </c>
       <c r="O38" s="13">
         <v>3640292</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" s="13">
         <v>415335</v>
@@ -11048,19 +11048,19 @@
         <v>0.10150000000000001</v>
       </c>
       <c r="N39" s="14">
-        <f>M39-$M$58</f>
+        <f t="shared" si="2"/>
         <v>6.2900000000000011E-2</v>
       </c>
       <c r="O39" s="13">
         <v>783758</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B40" s="13">
         <v>531373</v>
@@ -11099,19 +11099,19 @@
         <v>6.6799999999999998E-2</v>
       </c>
       <c r="N40" s="14">
-        <f>M40-$M$58</f>
+        <f t="shared" si="2"/>
         <v>2.8199999999999996E-2</v>
       </c>
       <c r="O40" s="13">
         <v>1014918</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B41" s="13">
         <v>4485741</v>
@@ -11150,19 +11150,19 @@
         <v>0.28179999999999999</v>
       </c>
       <c r="N41" s="14">
-        <f>M41-$M$58</f>
+        <f t="shared" si="2"/>
         <v>0.2432</v>
       </c>
       <c r="O41" s="13">
         <v>7081159</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B42" s="13">
         <v>2827709</v>
@@ -11201,19 +11201,19 @@
         <v>2.98E-2</v>
       </c>
       <c r="N42" s="14">
-        <f>M42-$M$58</f>
+        <f t="shared" si="2"/>
         <v>-8.8000000000000023E-3</v>
       </c>
       <c r="O42" s="13">
         <v>5580847</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B43" s="7">
         <v>443547</v>
@@ -11240,19 +11240,19 @@
         <v>-0.33539999999999998</v>
       </c>
       <c r="N43" s="8">
-        <f>M43-$M$58</f>
+        <f t="shared" si="2"/>
         <v>-0.374</v>
       </c>
       <c r="O43" s="7">
         <v>1334872</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" s="13">
         <v>970488</v>
@@ -11291,19 +11291,19 @@
         <v>0.12089999999999999</v>
       </c>
       <c r="N44" s="14">
-        <f>M44-$M$58</f>
+        <f t="shared" si="2"/>
         <v>8.2299999999999984E-2</v>
       </c>
       <c r="O44" s="13">
         <v>1789270</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B45" s="13">
         <v>2990274</v>
@@ -11342,19 +11342,19 @@
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="N45" s="14">
-        <f>M45-$M$58</f>
+        <f t="shared" si="2"/>
         <v>1.5300000000000001E-2</v>
       </c>
       <c r="O45" s="13">
         <v>5753670</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B46" s="13">
         <v>279677</v>
@@ -11393,19 +11393,19 @@
         <v>0.27460000000000001</v>
       </c>
       <c r="N46" s="14">
-        <f>M46-$M$58</f>
+        <f t="shared" si="2"/>
         <v>0.23600000000000002</v>
       </c>
       <c r="O46" s="13">
         <v>446049</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" s="7">
         <v>865941</v>
@@ -11444,19 +11444,19 @@
         <v>-0.1047</v>
       </c>
       <c r="N47" s="8">
-        <f>M47-$M$58</f>
+        <f t="shared" si="2"/>
         <v>-0.14330000000000001</v>
       </c>
       <c r="O47" s="7">
         <v>1964118</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B48" s="7">
         <v>145039</v>
@@ -11491,19 +11491,19 @@
         <v>-0.1802</v>
       </c>
       <c r="N48" s="8">
-        <f>M48-$M$58</f>
+        <f t="shared" si="2"/>
         <v>-0.21879999999999999</v>
       </c>
       <c r="O48" s="7">
         <v>363815</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B49" s="7">
         <v>960709</v>
@@ -11542,19 +11542,19 @@
         <v>-0.20399999999999999</v>
       </c>
       <c r="N49" s="8">
-        <f>M49-$M$58</f>
+        <f t="shared" si="2"/>
         <v>-0.24259999999999998</v>
       </c>
       <c r="O49" s="7">
         <v>2458577</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B50" s="7">
         <v>3308124</v>
@@ -11593,19 +11593,19 @@
         <v>-0.1578</v>
       </c>
       <c r="N50" s="8">
-        <f>M50-$M$58</f>
+        <f t="shared" si="2"/>
         <v>-0.19639999999999999</v>
       </c>
       <c r="O50" s="7">
         <v>7993851</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B51" s="7">
         <v>251813</v>
@@ -11644,19 +11644,19 @@
         <v>-0.48039999999999999</v>
       </c>
       <c r="N51" s="8">
-        <f>M51-$M$58</f>
+        <f t="shared" si="2"/>
         <v>-0.51900000000000002</v>
       </c>
       <c r="O51" s="7">
         <v>1017440</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B52" s="13">
         <v>1971820</v>
@@ -11695,19 +11695,19 @@
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="N52" s="14">
-        <f>M52-$M$58</f>
+        <f t="shared" si="2"/>
         <v>9.9999999999995925E-5</v>
       </c>
       <c r="O52" s="13">
         <v>3854489</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B53" s="13">
         <v>199239</v>
@@ -11746,19 +11746,19 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="N53" s="14">
-        <f>M53-$M$58</f>
+        <f t="shared" si="2"/>
         <v>0.31739999999999996</v>
       </c>
       <c r="O53" s="13">
         <v>299290</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B54" s="13">
         <v>1755396</v>
@@ -11797,19 +11797,19 @@
         <v>0.1487</v>
       </c>
       <c r="N54" s="14">
-        <f>M54-$M$58</f>
+        <f t="shared" si="2"/>
         <v>0.1101</v>
       </c>
       <c r="O54" s="13">
         <v>3125516</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" s="13">
         <v>1620985</v>
@@ -11848,19 +11848,19 @@
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="N55" s="14">
-        <f>M55-$M$58</f>
+        <f t="shared" si="2"/>
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="O55" s="13">
         <v>3068434</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B56" s="7">
         <v>238269</v>
@@ -11899,19 +11899,19 @@
         <v>-0.2676</v>
       </c>
       <c r="N56" s="8">
-        <f>M56-$M$58</f>
+        <f t="shared" si="2"/>
         <v>-0.30620000000000003</v>
       </c>
       <c r="O56" s="7">
         <v>670438</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B57" s="7">
         <v>69286</v>
@@ -11946,19 +11946,19 @@
         <v>-0.40820000000000001</v>
       </c>
       <c r="N57" s="8">
-        <f>M57-$M$58</f>
+        <f t="shared" si="2"/>
         <v>-0.44680000000000003</v>
       </c>
       <c r="O57" s="7">
         <v>249061</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B58" s="24">
         <v>65915795</v>
@@ -12001,7 +12001,7 @@
         <v>129085410</v>
       </c>
       <c r="P58" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -12021,8 +12021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC534F5A-BDF2-483B-9645-F82E2D73E8AC}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12032,72 +12032,72 @@
   <sheetData>
     <row r="1" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="U1" s="4" t="s">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6">
         <v>3</v>
@@ -12151,19 +12151,19 @@
         <v>-0.21540000000000001</v>
       </c>
       <c r="S2" s="34">
-        <f>R2-$R$58</f>
+        <f t="shared" ref="S2:S33" si="0">R2-$R$58</f>
         <v>-0.28810000000000002</v>
       </c>
       <c r="T2" s="7">
         <v>326197</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>9</v>
@@ -12217,19 +12217,19 @@
         <v>-0.21579999999999999</v>
       </c>
       <c r="S3" s="34">
-        <f>R3-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.28849999999999998</v>
       </c>
       <c r="T3" s="7">
         <v>2099819</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6">
         <v>6</v>
@@ -12283,19 +12283,19 @@
         <v>-0.19850000000000001</v>
       </c>
       <c r="S4" s="34">
-        <f>R4-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.2712</v>
       </c>
       <c r="T4" s="7">
         <v>1086617</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6">
         <v>10</v>
@@ -12349,19 +12349,19 @@
         <v>-8.5199999999999998E-2</v>
       </c>
       <c r="S5" s="34">
-        <f>R5-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.15789999999999998</v>
       </c>
       <c r="T5" s="7">
         <v>2293475</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="12">
         <v>55</v>
@@ -12415,19 +12415,19 @@
         <v>0.24060000000000001</v>
       </c>
       <c r="S6" s="34">
-        <f>R6-$R$58</f>
+        <f t="shared" si="0"/>
         <v>0.16789999999999999</v>
       </c>
       <c r="T6" s="13">
         <v>13561900</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="12">
         <v>9</v>
@@ -12481,19 +12481,19 @@
         <v>8.9499999999999996E-2</v>
       </c>
       <c r="S7" s="34">
-        <f>R7-$R$58</f>
+        <f t="shared" si="0"/>
         <v>1.6799999999999995E-2</v>
       </c>
       <c r="T7" s="13">
         <v>2401462</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="12">
         <v>7</v>
@@ -12547,19 +12547,19 @@
         <v>0.22370000000000001</v>
       </c>
       <c r="S8" s="34">
-        <f>R8-$R$58</f>
+        <f t="shared" si="0"/>
         <v>0.15100000000000002</v>
       </c>
       <c r="T8" s="13">
         <v>1646797</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12">
         <v>3</v>
@@ -12613,19 +12613,19 @@
         <v>0.85919999999999996</v>
       </c>
       <c r="S9" s="34">
-        <f>R9-$R$58</f>
+        <f t="shared" si="0"/>
         <v>0.78649999999999998</v>
       </c>
       <c r="T9" s="13">
         <v>265853</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="12">
         <v>3</v>
@@ -12679,19 +12679,19 @@
         <v>0.25</v>
       </c>
       <c r="S10" s="34">
-        <f>R10-$R$58</f>
+        <f t="shared" si="0"/>
         <v>0.17730000000000001</v>
       </c>
       <c r="T10" s="13">
         <v>412412</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="12">
         <v>27</v>
@@ -12745,19 +12745,19 @@
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="S11" s="34">
-        <f>R11-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-4.4499999999999998E-2</v>
       </c>
       <c r="T11" s="13">
         <v>8390744</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="6">
         <v>15</v>
@@ -12811,19 +12811,19 @@
         <v>-5.21E-2</v>
       </c>
       <c r="S12" s="34">
-        <f>R12-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.12479999999999999</v>
       </c>
       <c r="T12" s="7">
         <v>3924486</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="12">
         <v>4</v>
@@ -12877,19 +12877,19 @@
         <v>0.4526</v>
       </c>
       <c r="S13" s="34">
-        <f>R13-$R$58</f>
+        <f t="shared" si="0"/>
         <v>0.37990000000000002</v>
       </c>
       <c r="T13" s="13">
         <v>453568</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="12">
         <v>7</v>
@@ -12943,19 +12943,19 @@
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="S14" s="34">
-        <f>R14-$R$58</f>
+        <f t="shared" si="0"/>
         <v>2.2599999999999995E-2</v>
       </c>
       <c r="T14" s="13">
         <v>1537123</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6">
         <v>4</v>
@@ -13009,19 +13009,19 @@
         <v>-0.25430000000000003</v>
       </c>
       <c r="S15" s="34">
-        <f>R15-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.32700000000000001</v>
       </c>
       <c r="T15" s="7">
         <v>655122</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="12">
         <v>21</v>
@@ -13075,19 +13075,19 @@
         <v>0.25140000000000001</v>
       </c>
       <c r="S16" s="34">
-        <f>R16-$R$58</f>
+        <f t="shared" si="0"/>
         <v>0.17870000000000003</v>
       </c>
       <c r="T16" s="13">
         <v>5522371</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="12">
         <v>11</v>
@@ -13141,19 +13141,19 @@
         <v>1.03E-2</v>
       </c>
       <c r="S17" s="34">
-        <f>R17-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-6.2399999999999997E-2</v>
       </c>
       <c r="T17" s="13">
         <v>2751054</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6">
         <v>6</v>
@@ -13207,19 +13207,19 @@
         <v>-0.14960000000000001</v>
       </c>
       <c r="S18" s="34">
-        <f>R18-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.2223</v>
       </c>
       <c r="T18" s="7">
         <v>1235872</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="6">
         <v>8</v>
@@ -13273,19 +13273,19 @@
         <v>-0.1623</v>
       </c>
       <c r="S19" s="34">
-        <f>R19-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.23499999999999999</v>
       </c>
       <c r="T19" s="7">
         <v>1826620</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="6">
         <v>9</v>
@@ -13339,19 +13339,19 @@
         <v>-0.18629999999999999</v>
       </c>
       <c r="S20" s="34">
-        <f>R20-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.25900000000000001</v>
       </c>
       <c r="T20" s="7">
         <v>1960761</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="12">
         <v>12</v>
@@ -13405,19 +13405,19 @@
         <v>0.2581</v>
       </c>
       <c r="S21" s="34">
-        <f>R21-$R$58</f>
+        <f t="shared" si="0"/>
         <v>0.18540000000000001</v>
       </c>
       <c r="T21" s="13">
         <v>3080985</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="12">
         <v>10</v>
@@ -13471,19 +13471,19 @@
         <v>0.25440000000000002</v>
       </c>
       <c r="S22" s="34">
-        <f>R22-$R$58</f>
+        <f t="shared" si="0"/>
         <v>0.18170000000000003</v>
       </c>
       <c r="T22" s="13">
         <v>2631596</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" s="12">
         <v>4</v>
@@ -13537,19 +13537,19 @@
         <v>0.17319999999999999</v>
       </c>
       <c r="S23" s="34">
-        <f>R23-$R$58</f>
+        <f t="shared" si="0"/>
         <v>0.10049999999999999</v>
       </c>
       <c r="T23" s="13">
         <v>731163</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="37">
         <v>1</v>
@@ -13603,19 +13603,19 @@
         <v>0.22819999999999999</v>
       </c>
       <c r="S24" s="34">
-        <f>R24-$R$58</f>
+        <f t="shared" si="0"/>
         <v>0.15549999999999997</v>
       </c>
       <c r="T24" s="35">
         <v>383626</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="37">
         <v>1</v>
@@ -13669,19 +13669,19 @@
         <v>0.1125</v>
       </c>
       <c r="S25" s="34">
-        <f>R25-$R$58</f>
+        <f t="shared" si="0"/>
         <v>3.9800000000000002E-2</v>
       </c>
       <c r="T25" s="35">
         <v>347537</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="12">
         <v>17</v>
@@ -13735,19 +13735,19 @@
         <v>0.16470000000000001</v>
       </c>
       <c r="S26" s="34">
-        <f>R26-$R$58</f>
+        <f t="shared" si="0"/>
         <v>9.2000000000000012E-2</v>
       </c>
       <c r="T26" s="13">
         <v>5001766</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="12">
         <v>10</v>
@@ -13801,19 +13801,19 @@
         <v>0.1024</v>
       </c>
       <c r="S27" s="34">
-        <f>R27-$R$58</f>
+        <f t="shared" si="0"/>
         <v>2.9700000000000004E-2</v>
       </c>
       <c r="T27" s="13">
         <v>2910369</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="6">
         <v>11</v>
@@ -13867,19 +13867,19 @@
         <v>-1.2999999999999999E-3</v>
       </c>
       <c r="S28" s="34">
-        <f>R28-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-7.3999999999999996E-2</v>
       </c>
       <c r="T28" s="7">
         <v>2925205</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="6">
         <v>6</v>
@@ -13933,19 +13933,19 @@
         <v>-0.13170000000000001</v>
       </c>
       <c r="S29" s="34">
-        <f>R29-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.20440000000000003</v>
       </c>
       <c r="T29" s="7">
         <v>1289865</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="6">
         <v>3</v>
@@ -13999,19 +13999,19 @@
         <v>-2.2599999999999999E-2</v>
       </c>
       <c r="S30" s="34">
-        <f>R30-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-9.5299999999999996E-2</v>
       </c>
       <c r="T30" s="7">
         <v>490302</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" s="12">
         <v>15</v>
@@ -14065,19 +14065,19 @@
         <v>3.3E-3</v>
       </c>
       <c r="S31" s="34">
-        <f>R31-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-6.9400000000000003E-2</v>
       </c>
       <c r="T31" s="13">
         <v>4310789</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="6">
         <v>3</v>
@@ -14131,19 +14131,19 @@
         <v>-8.6300000000000002E-2</v>
       </c>
       <c r="S32" s="34">
-        <f>R32-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.159</v>
       </c>
       <c r="T32" s="7">
         <v>316621</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" s="6">
         <v>5</v>
@@ -14197,19 +14197,19 @@
         <v>-0.14929999999999999</v>
       </c>
       <c r="S33" s="34">
-        <f>R33-$R$58</f>
+        <f t="shared" si="0"/>
         <v>-0.22199999999999998</v>
       </c>
       <c r="T33" s="7">
         <v>801281</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="40">
         <v>1</v>
@@ -14263,19 +14263,19 @@
         <v>-9.7699999999999995E-2</v>
       </c>
       <c r="S34" s="34">
-        <f>R34-$R$58</f>
+        <f t="shared" ref="S34:S65" si="1">R34-$R$58</f>
         <v>-0.1704</v>
       </c>
       <c r="T34" s="38">
         <v>273893</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="37">
         <v>1</v>
@@ -14329,19 +14329,19 @@
         <v>1.21E-2</v>
       </c>
       <c r="S35" s="34">
-        <f>R35-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-6.0600000000000001E-2</v>
       </c>
       <c r="T35" s="35">
         <v>277809</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="40">
         <v>1</v>
@@ -14395,19 +14395,19 @@
         <v>-0.3901</v>
       </c>
       <c r="S36" s="34">
-        <f>R36-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-0.46279999999999999</v>
       </c>
       <c r="T36" s="38">
         <v>246742</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="12">
         <v>4</v>
@@ -14461,19 +14461,19 @@
         <v>9.6100000000000005E-2</v>
       </c>
       <c r="S37" s="34">
-        <f>R37-$R$58</f>
+        <f t="shared" si="1"/>
         <v>2.3400000000000004E-2</v>
       </c>
       <c r="T37" s="13">
         <v>710970</v>
       </c>
       <c r="U37" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="12">
         <v>15</v>
@@ -14527,19 +14527,19 @@
         <v>0.15570000000000001</v>
       </c>
       <c r="S38" s="34">
-        <f>R38-$R$58</f>
+        <f t="shared" si="1"/>
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="T38" s="13">
         <v>3868237</v>
       </c>
       <c r="U38" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" s="12">
         <v>5</v>
@@ -14593,19 +14593,19 @@
         <v>0.15129999999999999</v>
       </c>
       <c r="S39" s="34">
-        <f>R39-$R$58</f>
+        <f t="shared" si="1"/>
         <v>7.8599999999999989E-2</v>
       </c>
       <c r="T39" s="13">
         <v>830158</v>
       </c>
       <c r="U39" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="12">
         <v>5</v>
@@ -14659,19 +14659,19 @@
         <v>0.1249</v>
       </c>
       <c r="S40" s="34">
-        <f>R40-$R$58</f>
+        <f t="shared" si="1"/>
         <v>5.2199999999999996E-2</v>
       </c>
       <c r="T40" s="13">
         <v>967848</v>
       </c>
       <c r="U40" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="12">
         <v>31</v>
@@ -14725,19 +14725,19 @@
         <v>0.26860000000000001</v>
       </c>
       <c r="S41" s="34">
-        <f>R41-$R$58</f>
+        <f t="shared" si="1"/>
         <v>0.19590000000000002</v>
       </c>
       <c r="T41" s="13">
         <v>7640931</v>
       </c>
       <c r="U41" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="12">
         <v>20</v>
@@ -14791,19 +14791,19 @@
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="S42" s="34">
-        <f>R42-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-2.6799999999999997E-2</v>
       </c>
       <c r="T42" s="13">
         <v>5708350</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="6">
         <v>7</v>
@@ -14857,19 +14857,19 @@
         <v>-0.31290000000000001</v>
       </c>
       <c r="S43" s="34">
-        <f>R43-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-0.3856</v>
       </c>
       <c r="T43" s="7">
         <v>1462661</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44" s="12">
         <v>7</v>
@@ -14923,19 +14923,19 @@
         <v>0.16350000000000001</v>
       </c>
       <c r="S44" s="34">
-        <f>R44-$R$58</f>
+        <f t="shared" si="1"/>
         <v>9.0800000000000006E-2</v>
       </c>
       <c r="T44" s="13">
         <v>1827864</v>
       </c>
       <c r="U44" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="12">
         <v>21</v>
@@ -14989,19 +14989,19 @@
         <v>0.1032</v>
       </c>
       <c r="S45" s="34">
-        <f>R45-$R$58</f>
+        <f t="shared" si="1"/>
         <v>3.0499999999999999E-2</v>
       </c>
       <c r="T45" s="13">
         <v>6013272</v>
       </c>
       <c r="U45" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="12">
         <v>4</v>
@@ -15055,19 +15055,19 @@
         <v>0.27810000000000001</v>
       </c>
       <c r="S46" s="34">
-        <f>R46-$R$58</f>
+        <f t="shared" si="1"/>
         <v>0.20540000000000003</v>
       </c>
       <c r="T46" s="13">
         <v>471766</v>
       </c>
       <c r="U46" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="6">
         <v>8</v>
@@ -15121,19 +15121,19 @@
         <v>-8.9800000000000005E-2</v>
       </c>
       <c r="S47" s="34">
-        <f>R47-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-0.16250000000000001</v>
       </c>
       <c r="T47" s="7">
         <v>1920969</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" s="6">
         <v>3</v>
@@ -15187,19 +15187,19 @@
         <v>-8.4099999999999994E-2</v>
       </c>
       <c r="S48" s="34">
-        <f>R48-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-0.15679999999999999</v>
       </c>
       <c r="T48" s="7">
         <v>381975</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B49" s="6">
         <v>11</v>
@@ -15253,19 +15253,19 @@
         <v>-0.1507</v>
       </c>
       <c r="S49" s="34">
-        <f>R49-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-0.22339999999999999</v>
       </c>
       <c r="T49" s="7">
         <v>2599749</v>
       </c>
       <c r="U49" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" s="6">
         <v>34</v>
@@ -15319,19 +15319,19 @@
         <v>-0.1177</v>
       </c>
       <c r="S50" s="34">
-        <f>R50-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-0.19040000000000001</v>
       </c>
       <c r="T50" s="7">
         <v>8077795</v>
       </c>
       <c r="U50" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="6">
         <v>5</v>
@@ -15385,19 +15385,19 @@
         <v>-0.28179999999999999</v>
       </c>
       <c r="S51" s="34">
-        <f>R51-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-0.35449999999999998</v>
       </c>
       <c r="T51" s="7">
         <v>952370</v>
       </c>
       <c r="U51" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B52" s="12">
         <v>13</v>
@@ -15451,19 +15451,19 @@
         <v>6.3E-2</v>
       </c>
       <c r="S52" s="34">
-        <f>R52-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-9.7000000000000003E-3</v>
       </c>
       <c r="T52" s="13">
         <v>3723260</v>
       </c>
       <c r="U52" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" s="12">
         <v>3</v>
@@ -15517,19 +15517,19 @@
         <v>0.37009999999999998</v>
       </c>
       <c r="S53" s="34">
-        <f>R53-$R$58</f>
+        <f t="shared" si="1"/>
         <v>0.2974</v>
       </c>
       <c r="T53" s="13">
         <v>325046</v>
       </c>
       <c r="U53" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B54" s="12">
         <v>11</v>
@@ -15583,19 +15583,19 @@
         <v>0.17180000000000001</v>
       </c>
       <c r="S54" s="34">
-        <f>R54-$R$58</f>
+        <f t="shared" si="1"/>
         <v>9.9100000000000008E-2</v>
       </c>
       <c r="T54" s="13">
         <v>3036878</v>
       </c>
       <c r="U54" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55" s="12">
         <v>10</v>
@@ -15649,19 +15649,19 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="S55" s="34">
-        <f>R55-$R$58</f>
+        <f t="shared" si="1"/>
         <v>6.6300000000000012E-2</v>
       </c>
       <c r="T55" s="13">
         <v>2983417</v>
       </c>
       <c r="U55" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" s="6">
         <v>5</v>
@@ -15715,19 +15715,19 @@
         <v>-0.13120000000000001</v>
       </c>
       <c r="S56" s="34">
-        <f>R56-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-0.20390000000000003</v>
       </c>
       <c r="T56" s="7">
         <v>713451</v>
       </c>
       <c r="U56" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B57" s="6">
         <v>3</v>
@@ -15781,19 +15781,19 @@
         <v>-0.32240000000000002</v>
       </c>
       <c r="S57" s="34">
-        <f>R57-$R$58</f>
+        <f t="shared" si="1"/>
         <v>-0.39510000000000001</v>
       </c>
       <c r="T57" s="7">
         <v>254658</v>
       </c>
       <c r="U57" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B58" s="23">
         <v>538</v>
@@ -15851,7 +15851,7 @@
         <v>131313820</v>
       </c>
       <c r="U58" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Election_results_by_state.xlsx
+++ b/Election_results_by_state.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donald\Dropbox\Public\MyData\Datasets\Election_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51436AFD-56C9-431E-84FB-A182EF6DBC0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCDF08E-A160-4127-801A-FCD03C19399D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="990" windowWidth="19500" windowHeight="11670" xr2:uid="{BC1469EC-111D-46A2-8483-D7126A20285D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC1469EC-111D-46A2-8483-D7126A20285D}"/>
   </bookViews>
   <sheets>
     <sheet name="2016_by_state" sheetId="1" r:id="rId1"/>
     <sheet name="2012_by_state" sheetId="2" r:id="rId2"/>
     <sheet name="2008_by_state" sheetId="3" r:id="rId3"/>
+    <sheet name="2018_by_state" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="263">
   <si>
     <t>Source(s)</t>
   </si>
@@ -1414,6 +1415,15 @@
   </si>
   <si>
     <t>state</t>
+  </si>
+  <si>
+    <t>dem_votes</t>
+  </si>
+  <si>
+    <t>rep_votes</t>
+  </si>
+  <si>
+    <t>tot_votes</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1698,7 +1708,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1721,6 +1730,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5207,8 +5226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EEF49D-993D-452A-8E56-7959A1A870DD}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5331,9 +5350,9 @@
       <c r="Q2" s="8">
         <v>-0.14729999999999999</v>
       </c>
-      <c r="R2" s="8">
-        <f>Q2-$Q$58</f>
-        <v>-0.16829999999999998</v>
+      <c r="R2" s="45">
+        <f>100*(Q2-$Q$58)</f>
+        <v>-16.829999999999998</v>
       </c>
       <c r="S2" s="7">
         <v>318608</v>
@@ -5393,9 +5412,9 @@
       <c r="Q3" s="8">
         <v>-0.27729999999999999</v>
       </c>
-      <c r="R3" s="8">
-        <f>Q3-$Q$58</f>
-        <v>-0.29830000000000001</v>
+      <c r="R3" s="45">
+        <f t="shared" ref="R3:R57" si="0">100*(Q3-$Q$58)</f>
+        <v>-29.830000000000002</v>
       </c>
       <c r="S3" s="7">
         <v>2123372</v>
@@ -5459,9 +5478,9 @@
       <c r="Q4" s="8">
         <v>-0.26919999999999999</v>
       </c>
-      <c r="R4" s="8">
-        <f t="shared" ref="R4:R57" si="0">Q4-$Q$58</f>
-        <v>-0.29020000000000001</v>
+      <c r="R4" s="45">
+        <f t="shared" si="0"/>
+        <v>-29.020000000000003</v>
       </c>
       <c r="S4" s="7">
         <v>1130635</v>
@@ -5525,9 +5544,9 @@
       <c r="Q5" s="8">
         <v>-3.5499999999999997E-2</v>
       </c>
-      <c r="R5" s="8">
-        <f t="shared" si="0"/>
-        <v>-5.6499999999999995E-2</v>
+      <c r="R5" s="45">
+        <f t="shared" si="0"/>
+        <v>-5.6499999999999995</v>
       </c>
       <c r="S5" s="7">
         <v>2573165</v>
@@ -5591,9 +5610,9 @@
       <c r="Q6" s="14">
         <v>0.30109999999999998</v>
       </c>
-      <c r="R6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.28009999999999996</v>
+      <c r="R6" s="45">
+        <f t="shared" si="0"/>
+        <v>28.009999999999994</v>
       </c>
       <c r="S6" s="13">
         <v>14181595</v>
@@ -5657,9 +5676,9 @@
       <c r="Q7" s="14">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="R7" s="8">
-        <f t="shared" si="0"/>
-        <v>2.8099999999999997E-2</v>
+      <c r="R7" s="45">
+        <f t="shared" si="0"/>
+        <v>2.8099999999999996</v>
       </c>
       <c r="S7" s="13">
         <v>2780247</v>
@@ -5723,9 +5742,9 @@
       <c r="Q8" s="14">
         <v>0.13639999999999999</v>
       </c>
-      <c r="R8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.11539999999999999</v>
+      <c r="R8" s="45">
+        <f t="shared" si="0"/>
+        <v>11.54</v>
       </c>
       <c r="S8" s="13">
         <v>1644920</v>
@@ -5785,9 +5804,9 @@
       <c r="Q9" s="14">
         <v>0.86780000000000002</v>
       </c>
-      <c r="R9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.8468</v>
+      <c r="R9" s="45">
+        <f t="shared" si="0"/>
+        <v>84.68</v>
       </c>
       <c r="S9" s="13">
         <v>311268</v>
@@ -5851,9 +5870,9 @@
       <c r="Q10" s="14">
         <v>0.1137</v>
       </c>
-      <c r="R10" s="8">
-        <f t="shared" si="0"/>
-        <v>9.2699999999999991E-2</v>
+      <c r="R10" s="45">
+        <f t="shared" si="0"/>
+        <v>9.27</v>
       </c>
       <c r="S10" s="13">
         <v>443814</v>
@@ -5913,9 +5932,9 @@
       <c r="Q11" s="8">
         <v>-1.2E-2</v>
       </c>
-      <c r="R11" s="8">
-        <f t="shared" si="0"/>
-        <v>-3.3000000000000002E-2</v>
+      <c r="R11" s="45">
+        <f t="shared" si="0"/>
+        <v>-3.3000000000000003</v>
       </c>
       <c r="S11" s="7">
         <v>9420039</v>
@@ -5979,9 +5998,9 @@
       <c r="Q12" s="8">
         <v>-5.1299999999999998E-2</v>
       </c>
-      <c r="R12" s="8">
-        <f t="shared" si="0"/>
-        <v>-7.2300000000000003E-2</v>
+      <c r="R12" s="45">
+        <f t="shared" si="0"/>
+        <v>-7.23</v>
       </c>
       <c r="S12" s="7">
         <v>4114732</v>
@@ -6041,9 +6060,9 @@
       <c r="Q13" s="14">
         <v>0.32179999999999997</v>
       </c>
-      <c r="R13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.30079999999999996</v>
+      <c r="R13" s="45">
+        <f t="shared" si="0"/>
+        <v>30.079999999999995</v>
       </c>
       <c r="S13" s="13">
         <v>428937</v>
@@ -6107,9 +6126,9 @@
       <c r="Q14" s="8">
         <v>-9.4100000000000003E-2</v>
       </c>
-      <c r="R14" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.11510000000000001</v>
+      <c r="R14" s="45">
+        <f t="shared" si="0"/>
+        <v>-11.510000000000002</v>
       </c>
       <c r="S14" s="7">
         <v>1566031</v>
@@ -6173,9 +6192,9 @@
       <c r="Q15" s="8">
         <v>-0.31769999999999998</v>
       </c>
-      <c r="R15" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.3387</v>
+      <c r="R15" s="45">
+        <f t="shared" si="0"/>
+        <v>-33.869999999999997</v>
       </c>
       <c r="S15" s="7">
         <v>690255</v>
@@ -6239,9 +6258,9 @@
       <c r="Q16" s="14">
         <v>0.1706</v>
       </c>
-      <c r="R16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.14960000000000001</v>
+      <c r="R16" s="45">
+        <f t="shared" si="0"/>
+        <v>14.96</v>
       </c>
       <c r="S16" s="13">
         <v>5536424</v>
@@ -6301,9 +6320,9 @@
       <c r="Q17" s="8">
         <v>-0.19170000000000001</v>
       </c>
-      <c r="R17" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.2127</v>
+      <c r="R17" s="45">
+        <f t="shared" si="0"/>
+        <v>-21.27</v>
       </c>
       <c r="S17" s="7">
         <v>2734958</v>
@@ -6367,9 +6386,9 @@
       <c r="Q18" s="8">
         <v>-0.20599999999999999</v>
       </c>
-      <c r="R18" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.22699999999999998</v>
+      <c r="R18" s="45">
+        <f t="shared" si="0"/>
+        <v>-22.7</v>
       </c>
       <c r="S18" s="7">
         <v>1184402</v>
@@ -6433,9 +6452,9 @@
       <c r="Q19" s="8">
         <v>-0.2984</v>
       </c>
-      <c r="R19" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.31940000000000002</v>
+      <c r="R19" s="45">
+        <f t="shared" si="0"/>
+        <v>-31.94</v>
       </c>
       <c r="S19" s="7">
         <v>1924149</v>
@@ -6499,9 +6518,9 @@
       <c r="Q20" s="8">
         <v>-0.19639999999999999</v>
       </c>
-      <c r="R20" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.21739999999999998</v>
+      <c r="R20" s="45">
+        <f t="shared" si="0"/>
+        <v>-21.74</v>
       </c>
       <c r="S20" s="7">
         <v>2029032</v>
@@ -6565,9 +6584,9 @@
       <c r="Q21" s="14">
         <v>0.27200000000000002</v>
       </c>
-      <c r="R21" s="8">
-        <f t="shared" si="0"/>
-        <v>0.251</v>
+      <c r="R21" s="45">
+        <f t="shared" si="0"/>
+        <v>25.1</v>
       </c>
       <c r="S21" s="13">
         <v>3325046</v>
@@ -6575,7 +6594,7 @@
       <c r="T21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="U21" s="42" t="s">
+      <c r="U21" s="41" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6631,9 +6650,9 @@
       <c r="Q22" s="14">
         <v>0.26419999999999999</v>
       </c>
-      <c r="R22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.2432</v>
+      <c r="R22" s="45">
+        <f t="shared" si="0"/>
+        <v>24.32</v>
       </c>
       <c r="S22" s="13">
         <v>2781446</v>
@@ -6641,7 +6660,7 @@
       <c r="T22" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="U22" s="41" t="s">
+      <c r="U22" s="40" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6697,9 +6716,9 @@
       <c r="Q23" s="19">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="R23" s="8">
-        <f t="shared" si="0"/>
-        <v>8.6E-3</v>
+      <c r="R23" s="45">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
       </c>
       <c r="S23" s="13">
         <v>747927</v>
@@ -6763,9 +6782,9 @@
       <c r="Q24" s="19">
         <v>0.14810000000000001</v>
       </c>
-      <c r="R24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.12710000000000002</v>
+      <c r="R24" s="45">
+        <f t="shared" si="0"/>
+        <v>12.710000000000003</v>
       </c>
       <c r="S24" s="18">
         <v>394329</v>
@@ -6827,9 +6846,9 @@
       <c r="Q25" s="21">
         <v>-0.10290000000000001</v>
       </c>
-      <c r="R25" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.12390000000000001</v>
+      <c r="R25" s="45">
+        <f t="shared" si="0"/>
+        <v>-12.39</v>
       </c>
       <c r="S25" s="20">
         <v>353416</v>
@@ -6893,9 +6912,9 @@
       <c r="Q26" s="8">
         <v>-2.3E-3</v>
       </c>
-      <c r="R26" s="8">
-        <f t="shared" si="0"/>
-        <v>-2.3300000000000001E-2</v>
+      <c r="R26" s="45">
+        <f t="shared" si="0"/>
+        <v>-2.33</v>
       </c>
       <c r="S26" s="7">
         <v>4799284</v>
@@ -6959,9 +6978,9 @@
       <c r="Q27" s="14">
         <v>1.52E-2</v>
       </c>
-      <c r="R27" s="8">
-        <f t="shared" si="0"/>
-        <v>-5.8000000000000013E-3</v>
+      <c r="R27" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.58000000000000018</v>
       </c>
       <c r="S27" s="13">
         <v>2944813</v>
@@ -7025,9 +7044,9 @@
       <c r="Q28" s="8">
         <v>-0.18640000000000001</v>
       </c>
-      <c r="R28" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.2074</v>
+      <c r="R28" s="45">
+        <f t="shared" si="0"/>
+        <v>-20.74</v>
       </c>
       <c r="S28" s="7">
         <v>2808605</v>
@@ -7087,9 +7106,9 @@
       <c r="Q29" s="8">
         <v>-0.17829999999999999</v>
       </c>
-      <c r="R29" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.19929999999999998</v>
+      <c r="R29" s="45">
+        <f t="shared" si="0"/>
+        <v>-19.929999999999996</v>
       </c>
       <c r="S29" s="7">
         <v>1209357</v>
@@ -7153,9 +7172,9 @@
       <c r="Q30" s="8">
         <v>-0.20419999999999999</v>
       </c>
-      <c r="R30" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.22519999999999998</v>
+      <c r="R30" s="45">
+        <f t="shared" si="0"/>
+        <v>-22.52</v>
       </c>
       <c r="S30" s="7">
         <v>497147</v>
@@ -7215,9 +7234,9 @@
       <c r="Q31" s="8">
         <v>-3.6600000000000001E-2</v>
       </c>
-      <c r="R31" s="8">
-        <f t="shared" si="0"/>
-        <v>-5.7599999999999998E-2</v>
+      <c r="R31" s="45">
+        <f t="shared" si="0"/>
+        <v>-5.76</v>
       </c>
       <c r="S31" s="7">
         <v>4741564</v>
@@ -7277,9 +7296,9 @@
       <c r="Q32" s="8">
         <v>-0.35730000000000001</v>
       </c>
-      <c r="R32" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.37830000000000003</v>
+      <c r="R32" s="45">
+        <f t="shared" si="0"/>
+        <v>-37.830000000000005</v>
       </c>
       <c r="S32" s="7">
         <v>344360</v>
@@ -7339,9 +7358,9 @@
       <c r="Q33" s="8">
         <v>-0.2505</v>
       </c>
-      <c r="R33" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.27150000000000002</v>
+      <c r="R33" s="45">
+        <f t="shared" si="0"/>
+        <v>-27.150000000000002</v>
       </c>
       <c r="S33" s="7">
         <v>844227</v>
@@ -7401,9 +7420,9 @@
       <c r="Q34" s="21">
         <v>-0.2072</v>
       </c>
-      <c r="R34" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.22819999999999999</v>
+      <c r="R34" s="45">
+        <f t="shared" si="0"/>
+        <v>-22.82</v>
       </c>
       <c r="S34" s="20">
         <v>282338</v>
@@ -7461,9 +7480,9 @@
       <c r="Q35" s="21">
         <v>-2.24E-2</v>
       </c>
-      <c r="R35" s="8">
-        <f t="shared" si="0"/>
-        <v>-4.3400000000000001E-2</v>
+      <c r="R35" s="45">
+        <f t="shared" si="0"/>
+        <v>-4.34</v>
       </c>
       <c r="S35" s="20">
         <v>291680</v>
@@ -7521,9 +7540,9 @@
       <c r="Q36" s="21">
         <v>-0.54190000000000005</v>
       </c>
-      <c r="R36" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.56290000000000007</v>
+      <c r="R36" s="45">
+        <f t="shared" si="0"/>
+        <v>-56.290000000000006</v>
       </c>
       <c r="S36" s="20">
         <v>270109</v>
@@ -7585,9 +7604,9 @@
       <c r="Q37" s="14">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="R37" s="8">
-        <f t="shared" si="0"/>
-        <v>-1.7300000000000003E-2</v>
+      <c r="R37" s="45">
+        <f t="shared" si="0"/>
+        <v>-1.7300000000000002</v>
       </c>
       <c r="S37" s="13">
         <v>744296</v>
@@ -7647,9 +7666,9 @@
       <c r="Q38" s="14">
         <v>0.14099999999999999</v>
       </c>
-      <c r="R38" s="8">
-        <f t="shared" si="0"/>
-        <v>0.11999999999999998</v>
+      <c r="R38" s="45">
+        <f t="shared" si="0"/>
+        <v>11.999999999999998</v>
       </c>
       <c r="S38" s="13">
         <v>3874046</v>
@@ -7713,9 +7732,9 @@
       <c r="Q39" s="14">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="R39" s="8">
-        <f t="shared" si="0"/>
-        <v>6.1100000000000002E-2</v>
+      <c r="R39" s="45">
+        <f t="shared" si="0"/>
+        <v>6.11</v>
       </c>
       <c r="S39" s="13">
         <v>798319</v>
@@ -7771,9 +7790,9 @@
       <c r="Q40" s="14">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="R40" s="8">
-        <f t="shared" si="0"/>
-        <v>3.199999999999998E-3</v>
+      <c r="R40" s="45">
+        <f t="shared" si="0"/>
+        <v>0.31999999999999978</v>
       </c>
       <c r="S40" s="13">
         <v>1125385</v>
@@ -7837,9 +7856,9 @@
       <c r="Q41" s="14">
         <v>0.22489999999999999</v>
       </c>
-      <c r="R41" s="8">
-        <f t="shared" si="0"/>
-        <v>0.2039</v>
+      <c r="R41" s="45">
+        <f t="shared" si="0"/>
+        <v>20.39</v>
       </c>
       <c r="S41" s="13">
         <v>7721453</v>
@@ -7903,9 +7922,9 @@
       <c r="Q42" s="8">
         <v>-8.1299999999999997E-2</v>
       </c>
-      <c r="R42" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.1023</v>
+      <c r="R42" s="45">
+        <f t="shared" si="0"/>
+        <v>-10.23</v>
       </c>
       <c r="S42" s="7">
         <v>5496487</v>
@@ -7961,9 +7980,9 @@
       <c r="Q43" s="8">
         <v>-0.37080000000000002</v>
       </c>
-      <c r="R43" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.39180000000000004</v>
+      <c r="R43" s="45">
+        <f t="shared" si="0"/>
+        <v>-39.180000000000007</v>
       </c>
       <c r="S43" s="7">
         <v>1452992</v>
@@ -8023,9 +8042,9 @@
       <c r="Q44" s="14">
         <v>0.10979999999999999</v>
       </c>
-      <c r="R44" s="8">
-        <f t="shared" si="0"/>
-        <v>8.879999999999999E-2</v>
+      <c r="R44" s="45">
+        <f t="shared" si="0"/>
+        <v>8.879999999999999</v>
       </c>
       <c r="S44" s="13">
         <v>2001336</v>
@@ -8089,9 +8108,9 @@
       <c r="Q45" s="8">
         <v>-7.1999999999999998E-3</v>
       </c>
-      <c r="R45" s="8">
-        <f t="shared" si="0"/>
-        <v>-2.8200000000000003E-2</v>
+      <c r="R45" s="45">
+        <f t="shared" si="0"/>
+        <v>-2.8200000000000003</v>
       </c>
       <c r="S45" s="7">
         <v>6165478</v>
@@ -8155,9 +8174,9 @@
       <c r="Q46" s="14">
         <v>0.15509999999999999</v>
       </c>
-      <c r="R46" s="8">
-        <f t="shared" si="0"/>
-        <v>0.1341</v>
+      <c r="R46" s="45">
+        <f t="shared" si="0"/>
+        <v>13.41</v>
       </c>
       <c r="S46" s="13">
         <v>464144</v>
@@ -8221,9 +8240,9 @@
       <c r="Q47" s="8">
         <v>-0.14269999999999999</v>
       </c>
-      <c r="R47" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.16369999999999998</v>
+      <c r="R47" s="45">
+        <f t="shared" si="0"/>
+        <v>-16.369999999999997</v>
       </c>
       <c r="S47" s="7">
         <v>2103027</v>
@@ -8279,9 +8298,9 @@
       <c r="Q48" s="8">
         <v>-0.2979</v>
       </c>
-      <c r="R48" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.31890000000000002</v>
+      <c r="R48" s="45">
+        <f t="shared" si="0"/>
+        <v>-31.89</v>
       </c>
       <c r="S48" s="7">
         <v>370093</v>
@@ -8345,9 +8364,9 @@
       <c r="Q49" s="8">
         <v>-0.2601</v>
       </c>
-      <c r="R49" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.28110000000000002</v>
+      <c r="R49" s="45">
+        <f t="shared" si="0"/>
+        <v>-28.110000000000003</v>
       </c>
       <c r="S49" s="7">
         <v>2508027</v>
@@ -8411,9 +8430,9 @@
       <c r="Q50" s="8">
         <v>-8.9899999999999994E-2</v>
       </c>
-      <c r="R50" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.1109</v>
+      <c r="R50" s="45">
+        <f t="shared" si="0"/>
+        <v>-11.09</v>
       </c>
       <c r="S50" s="7">
         <v>8969226</v>
@@ -8477,9 +8496,9 @@
       <c r="Q51" s="8">
         <v>-0.18079999999999999</v>
       </c>
-      <c r="R51" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.20179999999999998</v>
+      <c r="R51" s="45">
+        <f t="shared" si="0"/>
+        <v>-20.18</v>
       </c>
       <c r="S51" s="7">
         <v>1131430</v>
@@ -8543,9 +8562,9 @@
       <c r="Q52" s="14">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="R52" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2199999999999993E-2</v>
+      <c r="R52" s="45">
+        <f t="shared" si="0"/>
+        <v>3.2199999999999993</v>
       </c>
       <c r="S52" s="13">
         <v>3984631</v>
@@ -8609,9 +8628,9 @@
       <c r="Q53" s="14">
         <v>0.2641</v>
       </c>
-      <c r="R53" s="8">
-        <f t="shared" si="0"/>
-        <v>0.24310000000000001</v>
+      <c r="R53" s="45">
+        <f t="shared" si="0"/>
+        <v>24.310000000000002</v>
       </c>
       <c r="S53" s="13">
         <v>315067</v>
@@ -8671,9 +8690,9 @@
       <c r="Q54" s="14">
         <v>0.15709999999999999</v>
       </c>
-      <c r="R54" s="8">
-        <f t="shared" si="0"/>
-        <v>0.1361</v>
+      <c r="R54" s="45">
+        <f t="shared" si="0"/>
+        <v>13.61</v>
       </c>
       <c r="S54" s="13">
         <v>3317019</v>
@@ -8737,9 +8756,9 @@
       <c r="Q55" s="8">
         <v>-7.7000000000000002E-3</v>
       </c>
-      <c r="R55" s="8">
-        <f t="shared" si="0"/>
-        <v>-2.8700000000000003E-2</v>
+      <c r="R55" s="45">
+        <f t="shared" si="0"/>
+        <v>-2.87</v>
       </c>
       <c r="S55" s="7">
         <v>2976150</v>
@@ -8803,9 +8822,9 @@
       <c r="Q56" s="8">
         <v>-0.42070000000000002</v>
       </c>
-      <c r="R56" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.44170000000000004</v>
+      <c r="R56" s="45">
+        <f t="shared" si="0"/>
+        <v>-44.17</v>
       </c>
       <c r="S56" s="7">
         <v>714423</v>
@@ -8865,9 +8884,9 @@
       <c r="Q57" s="8">
         <v>-0.46300000000000002</v>
       </c>
-      <c r="R57" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.48400000000000004</v>
+      <c r="R57" s="45">
+        <f t="shared" si="0"/>
+        <v>-48.400000000000006</v>
       </c>
       <c r="S57" s="7">
         <v>255849</v>
@@ -9056,8 +9075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C27D46-808A-4B37-9C65-8BFC968802F7}">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9155,9 +9174,9 @@
       <c r="M2" s="8">
         <v>-0.1399</v>
       </c>
-      <c r="N2" s="8">
-        <f t="shared" ref="N2:N33" si="0">M2-$M$58</f>
-        <v>-0.17849999999999999</v>
+      <c r="N2" s="45">
+        <f>100*(M2-$M$58)</f>
+        <v>-17.849999999999998</v>
       </c>
       <c r="O2" s="7">
         <v>300495</v>
@@ -9206,9 +9225,9 @@
       <c r="M3" s="8">
         <v>-0.22189999999999999</v>
       </c>
-      <c r="N3" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.26050000000000001</v>
+      <c r="N3" s="45">
+        <f t="shared" ref="N3:N57" si="0">100*(M3-$M$58)</f>
+        <v>-26.05</v>
       </c>
       <c r="O3" s="7">
         <v>2074338</v>
@@ -9257,9 +9276,9 @@
       <c r="M4" s="8">
         <v>-0.2369</v>
       </c>
-      <c r="N4" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.27550000000000002</v>
+      <c r="N4" s="45">
+        <f t="shared" si="0"/>
+        <v>-27.55</v>
       </c>
       <c r="O4" s="7">
         <v>1069468</v>
@@ -9308,9 +9327,9 @@
       <c r="M5" s="8">
         <v>-9.06E-2</v>
       </c>
-      <c r="N5" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.12920000000000001</v>
+      <c r="N5" s="45">
+        <f t="shared" si="0"/>
+        <v>-12.920000000000002</v>
       </c>
       <c r="O5" s="7">
         <v>2299254</v>
@@ -9359,9 +9378,9 @@
       <c r="M6" s="14">
         <v>0.23119999999999999</v>
       </c>
-      <c r="N6" s="14">
-        <f t="shared" si="0"/>
-        <v>0.19259999999999999</v>
+      <c r="N6" s="45">
+        <f t="shared" si="0"/>
+        <v>19.259999999999998</v>
       </c>
       <c r="O6" s="13">
         <v>13038547</v>
@@ -9410,9 +9429,9 @@
       <c r="M7" s="14">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="N7" s="14">
-        <f t="shared" si="0"/>
-        <v>1.5099999999999995E-2</v>
+      <c r="N7" s="45">
+        <f t="shared" si="0"/>
+        <v>1.5099999999999996</v>
       </c>
       <c r="O7" s="13">
         <v>2569518</v>
@@ -9461,9 +9480,9 @@
       <c r="M8" s="14">
         <v>0.17330000000000001</v>
       </c>
-      <c r="N8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.13470000000000001</v>
+      <c r="N8" s="45">
+        <f t="shared" si="0"/>
+        <v>13.47</v>
       </c>
       <c r="O8" s="13">
         <v>1558960</v>
@@ -9512,9 +9531,9 @@
       <c r="M9" s="14">
         <v>0.83630000000000004</v>
       </c>
-      <c r="N9" s="14">
-        <f t="shared" si="0"/>
-        <v>0.79770000000000008</v>
+      <c r="N9" s="45">
+        <f t="shared" si="0"/>
+        <v>79.77000000000001</v>
       </c>
       <c r="O9" s="13">
         <v>293764</v>
@@ -9563,9 +9582,9 @@
       <c r="M10" s="14">
         <v>0.18629999999999999</v>
       </c>
-      <c r="N10" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1477</v>
+      <c r="N10" s="45">
+        <f t="shared" si="0"/>
+        <v>14.77</v>
       </c>
       <c r="O10" s="13">
         <v>413921</v>
@@ -9614,9 +9633,9 @@
       <c r="M11" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="N11" s="14">
-        <f t="shared" si="0"/>
-        <v>-2.98E-2</v>
+      <c r="N11" s="45">
+        <f t="shared" si="0"/>
+        <v>-2.98</v>
       </c>
       <c r="O11" s="13">
         <v>8474179</v>
@@ -9665,9 +9684,9 @@
       <c r="M12" s="8">
         <v>-7.8200000000000006E-2</v>
       </c>
-      <c r="N12" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.11680000000000001</v>
+      <c r="N12" s="45">
+        <f t="shared" si="0"/>
+        <v>-11.680000000000001</v>
       </c>
       <c r="O12" s="7">
         <v>3900050</v>
@@ -9717,9 +9736,9 @@
       <c r="M13" s="14">
         <v>0.42709999999999998</v>
       </c>
-      <c r="N13" s="14">
-        <f t="shared" si="0"/>
-        <v>0.38849999999999996</v>
+      <c r="N13" s="45">
+        <f t="shared" si="0"/>
+        <v>38.849999999999994</v>
       </c>
       <c r="O13" s="13">
         <v>434697</v>
@@ -9768,9 +9787,9 @@
       <c r="M14" s="14">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="N14" s="14">
-        <f t="shared" si="0"/>
-        <v>1.9499999999999997E-2</v>
+      <c r="N14" s="45">
+        <f t="shared" si="0"/>
+        <v>1.9499999999999997</v>
       </c>
       <c r="O14" s="13">
         <v>1582180</v>
@@ -9819,9 +9838,9 @@
       <c r="M15" s="8">
         <v>-0.31909999999999999</v>
       </c>
-      <c r="N15" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.35770000000000002</v>
+      <c r="N15" s="45">
+        <f t="shared" si="0"/>
+        <v>-35.770000000000003</v>
       </c>
       <c r="O15" s="7">
         <v>652274</v>
@@ -9870,9 +9889,9 @@
       <c r="M16" s="14">
         <v>0.16869999999999999</v>
       </c>
-      <c r="N16" s="14">
-        <f t="shared" si="0"/>
-        <v>0.13009999999999999</v>
+      <c r="N16" s="45">
+        <f t="shared" si="0"/>
+        <v>13.01</v>
       </c>
       <c r="O16" s="13">
         <v>5242014</v>
@@ -9921,9 +9940,9 @@
       <c r="M17" s="8">
         <v>-0.10199999999999999</v>
       </c>
-      <c r="N17" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.1406</v>
+      <c r="N17" s="45">
+        <f t="shared" si="0"/>
+        <v>-14.06</v>
       </c>
       <c r="O17" s="7">
         <v>2624534</v>
@@ -9972,9 +9991,9 @@
       <c r="M18" s="8">
         <v>-0.2172</v>
       </c>
-      <c r="N18" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.25580000000000003</v>
+      <c r="N18" s="45">
+        <f t="shared" si="0"/>
+        <v>-25.580000000000002</v>
       </c>
       <c r="O18" s="7">
         <v>1159971</v>
@@ -10023,9 +10042,9 @@
       <c r="M19" s="8">
         <v>-0.22689999999999999</v>
       </c>
-      <c r="N19" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.26550000000000001</v>
+      <c r="N19" s="45">
+        <f t="shared" si="0"/>
+        <v>-26.55</v>
       </c>
       <c r="O19" s="7">
         <v>1797212</v>
@@ -10074,9 +10093,9 @@
       <c r="M20" s="8">
         <v>-0.1721</v>
       </c>
-      <c r="N20" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.2107</v>
+      <c r="N20" s="45">
+        <f t="shared" si="0"/>
+        <v>-21.07</v>
       </c>
       <c r="O20" s="7">
         <v>1994065</v>
@@ -10125,9 +10144,9 @@
       <c r="M21" s="14">
         <v>0.23139999999999999</v>
       </c>
-      <c r="N21" s="14">
-        <f t="shared" si="0"/>
-        <v>0.1928</v>
+      <c r="N21" s="45">
+        <f t="shared" si="0"/>
+        <v>19.28</v>
       </c>
       <c r="O21" s="13">
         <v>3167767</v>
@@ -10176,9 +10195,9 @@
       <c r="M22" s="14">
         <v>0.26079999999999998</v>
       </c>
-      <c r="N22" s="14">
-        <f t="shared" si="0"/>
-        <v>0.22219999999999998</v>
+      <c r="N22" s="45">
+        <f t="shared" si="0"/>
+        <v>22.22</v>
       </c>
       <c r="O22" s="13">
         <v>2707327</v>
@@ -10227,9 +10246,9 @@
       <c r="M23" s="14">
         <v>0.15290000000000001</v>
       </c>
-      <c r="N23" s="14">
-        <f t="shared" si="0"/>
-        <v>0.11430000000000001</v>
+      <c r="N23" s="45">
+        <f t="shared" si="0"/>
+        <v>11.430000000000001</v>
       </c>
       <c r="O23" s="13">
         <v>713180</v>
@@ -10242,28 +10261,28 @@
       <c r="A24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="34">
         <v>223035</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="35">
         <v>0.59570000000000001</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="34">
         <v>142937</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <v>0.38179999999999997</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="34">
         <v>4501</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="35">
         <v>1.2E-2</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="34">
         <v>3946</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="35">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="J24" s="13">
@@ -10282,11 +10301,11 @@
         <f>C24-E24</f>
         <v>0.21390000000000003</v>
       </c>
-      <c r="N24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.17530000000000004</v>
-      </c>
-      <c r="O24" s="35">
+      <c r="N24" s="45">
+        <f t="shared" si="0"/>
+        <v>17.530000000000005</v>
+      </c>
+      <c r="O24" s="34">
         <v>374419</v>
       </c>
       <c r="P24" s="6" t="s">
@@ -10297,28 +10316,28 @@
       <c r="A25" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="34">
         <v>177998</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>0.52939999999999998</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="34">
         <v>149215</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="35">
         <v>0.44379999999999997</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="34">
         <v>4843</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="35">
         <v>1.44E-2</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="34">
         <v>4170</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <v>1.24E-2</v>
       </c>
       <c r="J25" s="13">
@@ -10337,11 +10356,11 @@
         <f>C25-E25</f>
         <v>8.5600000000000009E-2</v>
       </c>
-      <c r="N25" s="14">
-        <f t="shared" si="0"/>
-        <v>4.7000000000000007E-2</v>
-      </c>
-      <c r="O25" s="35">
+      <c r="N25" s="45">
+        <f t="shared" si="0"/>
+        <v>4.7000000000000011</v>
+      </c>
+      <c r="O25" s="34">
         <v>336226</v>
       </c>
       <c r="P25" s="6" t="s">
@@ -10388,9 +10407,9 @@
       <c r="M26" s="14">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="N26" s="14">
-        <f t="shared" si="0"/>
-        <v>5.6399999999999999E-2</v>
+      <c r="N26" s="45">
+        <f t="shared" si="0"/>
+        <v>5.64</v>
       </c>
       <c r="O26" s="13">
         <v>4730961</v>
@@ -10439,9 +10458,9 @@
       <c r="M27" s="14">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="N27" s="14">
-        <f t="shared" si="0"/>
-        <v>3.8299999999999994E-2</v>
+      <c r="N27" s="45">
+        <f t="shared" si="0"/>
+        <v>3.8299999999999992</v>
       </c>
       <c r="O27" s="13">
         <v>2936561</v>
@@ -10486,9 +10505,9 @@
       <c r="M28" s="8">
         <v>-9.3799999999999994E-2</v>
       </c>
-      <c r="N28" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.13239999999999999</v>
+      <c r="N28" s="45">
+        <f t="shared" si="0"/>
+        <v>-13.239999999999998</v>
       </c>
       <c r="O28" s="7">
         <v>2757323</v>
@@ -10537,9 +10556,9 @@
       <c r="M29" s="8">
         <v>-0.115</v>
       </c>
-      <c r="N29" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.15360000000000001</v>
+      <c r="N29" s="45">
+        <f t="shared" si="0"/>
+        <v>-15.360000000000001</v>
       </c>
       <c r="O29" s="7">
         <v>1285584</v>
@@ -10584,9 +10603,9 @@
       <c r="M30" s="8">
         <v>-0.13650000000000001</v>
       </c>
-      <c r="N30" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.17510000000000001</v>
+      <c r="N30" s="45">
+        <f t="shared" si="0"/>
+        <v>-17.510000000000002</v>
       </c>
       <c r="O30" s="7">
         <v>484048</v>
@@ -10631,9 +10650,9 @@
       <c r="M31" s="8">
         <v>-2.0400000000000001E-2</v>
       </c>
-      <c r="N31" s="8">
-        <f t="shared" si="0"/>
-        <v>-5.9000000000000004E-2</v>
+      <c r="N31" s="45">
+        <f t="shared" si="0"/>
+        <v>-5.9</v>
       </c>
       <c r="O31" s="7">
         <v>4505372</v>
@@ -10682,9 +10701,9 @@
       <c r="M32" s="8">
         <v>-0.1963</v>
       </c>
-      <c r="N32" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.2349</v>
+      <c r="N32" s="45">
+        <f t="shared" si="0"/>
+        <v>-23.49</v>
       </c>
       <c r="O32" s="7">
         <v>322627</v>
@@ -10729,9 +10748,9 @@
       <c r="M33" s="8">
         <v>-0.21779999999999999</v>
       </c>
-      <c r="N33" s="8">
-        <f t="shared" si="0"/>
-        <v>-0.25640000000000002</v>
+      <c r="N33" s="45">
+        <f t="shared" si="0"/>
+        <v>-25.64</v>
       </c>
       <c r="O33" s="7">
         <v>794379</v>
@@ -10744,28 +10763,28 @@
       <c r="A34" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="37">
         <v>108082</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="38">
         <v>0.4083</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>152021</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="38">
         <v>0.57430000000000003</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>3847</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="38">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="39">
         <v>0</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="39">
         <v>0</v>
       </c>
       <c r="J34" s="13">
@@ -10784,11 +10803,11 @@
         <f t="shared" si="1"/>
         <v>0.16600000000000004</v>
       </c>
-      <c r="N34" s="14">
-        <f t="shared" ref="N34:N65" si="2">M34-$M$58</f>
-        <v>0.12740000000000004</v>
-      </c>
-      <c r="O34" s="38">
+      <c r="N34" s="45">
+        <f t="shared" si="0"/>
+        <v>12.740000000000004</v>
+      </c>
+      <c r="O34" s="37">
         <v>264712</v>
       </c>
       <c r="P34" s="6" t="s">
@@ -10799,28 +10818,28 @@
       <c r="A35" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="37">
         <v>121889</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="38">
         <v>0.45700000000000002</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>140976</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="38">
         <v>0.52849999999999997</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="37">
         <v>3393</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="38">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="39">
         <v>0</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="39">
         <v>0</v>
       </c>
       <c r="J35" s="13">
@@ -10839,11 +10858,11 @@
         <f t="shared" si="1"/>
         <v>7.1499999999999952E-2</v>
       </c>
-      <c r="N35" s="14">
-        <f t="shared" si="2"/>
-        <v>3.289999999999995E-2</v>
-      </c>
-      <c r="O35" s="38">
+      <c r="N35" s="45">
+        <f t="shared" si="0"/>
+        <v>3.2899999999999952</v>
+      </c>
+      <c r="O35" s="37">
         <v>266727</v>
       </c>
       <c r="P35" s="6" t="s">
@@ -10854,28 +10873,28 @@
       <c r="A36" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="37">
         <v>72110</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="38">
         <v>0.2782</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="37">
         <v>182067</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="38">
         <v>0.70240000000000002</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="37">
         <v>3869</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="38">
         <v>1.49E-2</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="39">
         <v>0</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="39">
         <v>0</v>
       </c>
       <c r="J36" s="13">
@@ -10894,11 +10913,11 @@
         <f t="shared" si="1"/>
         <v>0.42420000000000002</v>
       </c>
-      <c r="N36" s="14">
-        <f t="shared" si="2"/>
-        <v>0.3856</v>
-      </c>
-      <c r="O36" s="38">
+      <c r="N36" s="45">
+        <f t="shared" si="0"/>
+        <v>38.56</v>
+      </c>
+      <c r="O36" s="37">
         <v>259223</v>
       </c>
       <c r="P36" s="6" t="s">
@@ -10945,9 +10964,9 @@
       <c r="M37" s="14">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="N37" s="14">
-        <f t="shared" si="2"/>
-        <v>1.72E-2</v>
+      <c r="N37" s="45">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
       </c>
       <c r="O37" s="13">
         <v>710972</v>
@@ -10996,9 +11015,9 @@
       <c r="M38" s="14">
         <v>0.17810000000000001</v>
       </c>
-      <c r="N38" s="14">
-        <f t="shared" si="2"/>
-        <v>0.13950000000000001</v>
+      <c r="N38" s="45">
+        <f t="shared" si="0"/>
+        <v>13.950000000000001</v>
       </c>
       <c r="O38" s="13">
         <v>3640292</v>
@@ -11047,9 +11066,9 @@
       <c r="M39" s="14">
         <v>0.10150000000000001</v>
       </c>
-      <c r="N39" s="14">
-        <f t="shared" si="2"/>
-        <v>6.2900000000000011E-2</v>
+      <c r="N39" s="45">
+        <f t="shared" si="0"/>
+        <v>6.2900000000000009</v>
       </c>
       <c r="O39" s="13">
         <v>783758</v>
@@ -11098,9 +11117,9 @@
       <c r="M40" s="14">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="N40" s="14">
-        <f t="shared" si="2"/>
-        <v>2.8199999999999996E-2</v>
+      <c r="N40" s="45">
+        <f t="shared" si="0"/>
+        <v>2.8199999999999994</v>
       </c>
       <c r="O40" s="13">
         <v>1014918</v>
@@ -11149,9 +11168,9 @@
       <c r="M41" s="14">
         <v>0.28179999999999999</v>
       </c>
-      <c r="N41" s="14">
-        <f t="shared" si="2"/>
-        <v>0.2432</v>
+      <c r="N41" s="45">
+        <f t="shared" si="0"/>
+        <v>24.32</v>
       </c>
       <c r="O41" s="13">
         <v>7081159</v>
@@ -11200,9 +11219,9 @@
       <c r="M42" s="14">
         <v>2.98E-2</v>
       </c>
-      <c r="N42" s="14">
-        <f t="shared" si="2"/>
-        <v>-8.8000000000000023E-3</v>
+      <c r="N42" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.88000000000000023</v>
       </c>
       <c r="O42" s="13">
         <v>5580847</v>
@@ -11239,9 +11258,9 @@
       <c r="M43" s="8">
         <v>-0.33539999999999998</v>
       </c>
-      <c r="N43" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.374</v>
+      <c r="N43" s="45">
+        <f t="shared" si="0"/>
+        <v>-37.4</v>
       </c>
       <c r="O43" s="7">
         <v>1334872</v>
@@ -11290,9 +11309,9 @@
       <c r="M44" s="14">
         <v>0.12089999999999999</v>
       </c>
-      <c r="N44" s="14">
-        <f t="shared" si="2"/>
-        <v>8.2299999999999984E-2</v>
+      <c r="N44" s="45">
+        <f t="shared" si="0"/>
+        <v>8.2299999999999986</v>
       </c>
       <c r="O44" s="13">
         <v>1789270</v>
@@ -11341,9 +11360,9 @@
       <c r="M45" s="14">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="N45" s="14">
-        <f t="shared" si="2"/>
-        <v>1.5300000000000001E-2</v>
+      <c r="N45" s="45">
+        <f t="shared" si="0"/>
+        <v>1.53</v>
       </c>
       <c r="O45" s="13">
         <v>5753670</v>
@@ -11392,9 +11411,9 @@
       <c r="M46" s="14">
         <v>0.27460000000000001</v>
       </c>
-      <c r="N46" s="14">
-        <f t="shared" si="2"/>
-        <v>0.23600000000000002</v>
+      <c r="N46" s="45">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
       </c>
       <c r="O46" s="13">
         <v>446049</v>
@@ -11443,9 +11462,9 @@
       <c r="M47" s="8">
         <v>-0.1047</v>
       </c>
-      <c r="N47" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.14330000000000001</v>
+      <c r="N47" s="45">
+        <f t="shared" si="0"/>
+        <v>-14.330000000000002</v>
       </c>
       <c r="O47" s="7">
         <v>1964118</v>
@@ -11490,9 +11509,9 @@
       <c r="M48" s="8">
         <v>-0.1802</v>
       </c>
-      <c r="N48" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.21879999999999999</v>
+      <c r="N48" s="45">
+        <f t="shared" si="0"/>
+        <v>-21.88</v>
       </c>
       <c r="O48" s="7">
         <v>363815</v>
@@ -11541,9 +11560,9 @@
       <c r="M49" s="8">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="N49" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.24259999999999998</v>
+      <c r="N49" s="45">
+        <f t="shared" si="0"/>
+        <v>-24.259999999999998</v>
       </c>
       <c r="O49" s="7">
         <v>2458577</v>
@@ -11592,9 +11611,9 @@
       <c r="M50" s="8">
         <v>-0.1578</v>
       </c>
-      <c r="N50" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.19639999999999999</v>
+      <c r="N50" s="45">
+        <f t="shared" si="0"/>
+        <v>-19.64</v>
       </c>
       <c r="O50" s="7">
         <v>7993851</v>
@@ -11643,9 +11662,9 @@
       <c r="M51" s="8">
         <v>-0.48039999999999999</v>
       </c>
-      <c r="N51" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.51900000000000002</v>
+      <c r="N51" s="45">
+        <f t="shared" si="0"/>
+        <v>-51.9</v>
       </c>
       <c r="O51" s="7">
         <v>1017440</v>
@@ -11694,9 +11713,9 @@
       <c r="M52" s="14">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="N52" s="14">
-        <f t="shared" si="2"/>
-        <v>9.9999999999995925E-5</v>
+      <c r="N52" s="45">
+        <f t="shared" si="0"/>
+        <v>9.9999999999995925E-3</v>
       </c>
       <c r="O52" s="13">
         <v>3854489</v>
@@ -11745,9 +11764,9 @@
       <c r="M53" s="14">
         <v>0.35599999999999998</v>
       </c>
-      <c r="N53" s="14">
-        <f t="shared" si="2"/>
-        <v>0.31739999999999996</v>
+      <c r="N53" s="45">
+        <f t="shared" si="0"/>
+        <v>31.739999999999995</v>
       </c>
       <c r="O53" s="13">
         <v>299290</v>
@@ -11796,9 +11815,9 @@
       <c r="M54" s="14">
         <v>0.1487</v>
       </c>
-      <c r="N54" s="14">
-        <f t="shared" si="2"/>
-        <v>0.1101</v>
+      <c r="N54" s="45">
+        <f t="shared" si="0"/>
+        <v>11.01</v>
       </c>
       <c r="O54" s="13">
         <v>3125516</v>
@@ -11847,9 +11866,9 @@
       <c r="M55" s="14">
         <v>6.9400000000000003E-2</v>
       </c>
-      <c r="N55" s="14">
-        <f t="shared" si="2"/>
-        <v>3.0800000000000001E-2</v>
+      <c r="N55" s="45">
+        <f t="shared" si="0"/>
+        <v>3.08</v>
       </c>
       <c r="O55" s="13">
         <v>3068434</v>
@@ -11898,9 +11917,9 @@
       <c r="M56" s="8">
         <v>-0.2676</v>
       </c>
-      <c r="N56" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.30620000000000003</v>
+      <c r="N56" s="45">
+        <f t="shared" si="0"/>
+        <v>-30.620000000000005</v>
       </c>
       <c r="O56" s="7">
         <v>670438</v>
@@ -11945,9 +11964,9 @@
       <c r="M57" s="8">
         <v>-0.40820000000000001</v>
       </c>
-      <c r="N57" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.44680000000000003</v>
+      <c r="N57" s="45">
+        <f t="shared" si="0"/>
+        <v>-44.68</v>
       </c>
       <c r="O57" s="7">
         <v>249061</v>
@@ -12021,8 +12040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC534F5A-BDF2-483B-9645-F82E2D73E8AC}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12150,9 +12169,9 @@
       <c r="R2" s="8">
         <v>-0.21540000000000001</v>
       </c>
-      <c r="S2" s="34">
-        <f t="shared" ref="S2:S33" si="0">R2-$R$58</f>
-        <v>-0.28810000000000002</v>
+      <c r="S2" s="44">
+        <f>100*(R2-$R$58)</f>
+        <v>-28.810000000000002</v>
       </c>
       <c r="T2" s="7">
         <v>326197</v>
@@ -12216,9 +12235,9 @@
       <c r="R3" s="8">
         <v>-0.21579999999999999</v>
       </c>
-      <c r="S3" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.28849999999999998</v>
+      <c r="S3" s="44">
+        <f t="shared" ref="S3:S57" si="0">100*(R3-$R$58)</f>
+        <v>-28.849999999999998</v>
       </c>
       <c r="T3" s="7">
         <v>2099819</v>
@@ -12282,9 +12301,9 @@
       <c r="R4" s="8">
         <v>-0.19850000000000001</v>
       </c>
-      <c r="S4" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.2712</v>
+      <c r="S4" s="44">
+        <f t="shared" si="0"/>
+        <v>-27.12</v>
       </c>
       <c r="T4" s="7">
         <v>1086617</v>
@@ -12348,9 +12367,9 @@
       <c r="R5" s="8">
         <v>-8.5199999999999998E-2</v>
       </c>
-      <c r="S5" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.15789999999999998</v>
+      <c r="S5" s="44">
+        <f t="shared" si="0"/>
+        <v>-15.79</v>
       </c>
       <c r="T5" s="7">
         <v>2293475</v>
@@ -12414,9 +12433,9 @@
       <c r="R6" s="14">
         <v>0.24060000000000001</v>
       </c>
-      <c r="S6" s="34">
-        <f t="shared" si="0"/>
-        <v>0.16789999999999999</v>
+      <c r="S6" s="44">
+        <f t="shared" si="0"/>
+        <v>16.79</v>
       </c>
       <c r="T6" s="13">
         <v>13561900</v>
@@ -12480,9 +12499,9 @@
       <c r="R7" s="14">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="S7" s="34">
-        <f t="shared" si="0"/>
-        <v>1.6799999999999995E-2</v>
+      <c r="S7" s="44">
+        <f t="shared" si="0"/>
+        <v>1.6799999999999995</v>
       </c>
       <c r="T7" s="13">
         <v>2401462</v>
@@ -12546,9 +12565,9 @@
       <c r="R8" s="14">
         <v>0.22370000000000001</v>
       </c>
-      <c r="S8" s="34">
-        <f t="shared" si="0"/>
-        <v>0.15100000000000002</v>
+      <c r="S8" s="44">
+        <f t="shared" si="0"/>
+        <v>15.100000000000001</v>
       </c>
       <c r="T8" s="13">
         <v>1646797</v>
@@ -12612,9 +12631,9 @@
       <c r="R9" s="14">
         <v>0.85919999999999996</v>
       </c>
-      <c r="S9" s="34">
-        <f t="shared" si="0"/>
-        <v>0.78649999999999998</v>
+      <c r="S9" s="44">
+        <f t="shared" si="0"/>
+        <v>78.649999999999991</v>
       </c>
       <c r="T9" s="13">
         <v>265853</v>
@@ -12678,9 +12697,9 @@
       <c r="R10" s="14">
         <v>0.25</v>
       </c>
-      <c r="S10" s="34">
-        <f t="shared" si="0"/>
-        <v>0.17730000000000001</v>
+      <c r="S10" s="44">
+        <f t="shared" si="0"/>
+        <v>17.73</v>
       </c>
       <c r="T10" s="13">
         <v>412412</v>
@@ -12744,9 +12763,9 @@
       <c r="R11" s="14">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="S11" s="34">
-        <f t="shared" si="0"/>
-        <v>-4.4499999999999998E-2</v>
+      <c r="S11" s="44">
+        <f t="shared" si="0"/>
+        <v>-4.45</v>
       </c>
       <c r="T11" s="13">
         <v>8390744</v>
@@ -12810,9 +12829,9 @@
       <c r="R12" s="8">
         <v>-5.21E-2</v>
       </c>
-      <c r="S12" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.12479999999999999</v>
+      <c r="S12" s="44">
+        <f t="shared" si="0"/>
+        <v>-12.479999999999999</v>
       </c>
       <c r="T12" s="7">
         <v>3924486</v>
@@ -12876,9 +12895,9 @@
       <c r="R13" s="14">
         <v>0.4526</v>
       </c>
-      <c r="S13" s="34">
-        <f t="shared" si="0"/>
-        <v>0.37990000000000002</v>
+      <c r="S13" s="44">
+        <f t="shared" si="0"/>
+        <v>37.99</v>
       </c>
       <c r="T13" s="13">
         <v>453568</v>
@@ -12942,9 +12961,9 @@
       <c r="R14" s="14">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="S14" s="34">
-        <f t="shared" si="0"/>
-        <v>2.2599999999999995E-2</v>
+      <c r="S14" s="44">
+        <f t="shared" si="0"/>
+        <v>2.2599999999999993</v>
       </c>
       <c r="T14" s="13">
         <v>1537123</v>
@@ -13008,9 +13027,9 @@
       <c r="R15" s="8">
         <v>-0.25430000000000003</v>
       </c>
-      <c r="S15" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.32700000000000001</v>
+      <c r="S15" s="44">
+        <f t="shared" si="0"/>
+        <v>-32.700000000000003</v>
       </c>
       <c r="T15" s="7">
         <v>655122</v>
@@ -13074,9 +13093,9 @@
       <c r="R16" s="14">
         <v>0.25140000000000001</v>
       </c>
-      <c r="S16" s="34">
-        <f t="shared" si="0"/>
-        <v>0.17870000000000003</v>
+      <c r="S16" s="44">
+        <f t="shared" si="0"/>
+        <v>17.87</v>
       </c>
       <c r="T16" s="13">
         <v>5522371</v>
@@ -13140,9 +13159,9 @@
       <c r="R17" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="S17" s="34">
-        <f t="shared" si="0"/>
-        <v>-6.2399999999999997E-2</v>
+      <c r="S17" s="44">
+        <f t="shared" si="0"/>
+        <v>-6.2399999999999993</v>
       </c>
       <c r="T17" s="13">
         <v>2751054</v>
@@ -13206,9 +13225,9 @@
       <c r="R18" s="8">
         <v>-0.14960000000000001</v>
       </c>
-      <c r="S18" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.2223</v>
+      <c r="S18" s="44">
+        <f t="shared" si="0"/>
+        <v>-22.23</v>
       </c>
       <c r="T18" s="7">
         <v>1235872</v>
@@ -13272,9 +13291,9 @@
       <c r="R19" s="8">
         <v>-0.1623</v>
       </c>
-      <c r="S19" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.23499999999999999</v>
+      <c r="S19" s="44">
+        <f t="shared" si="0"/>
+        <v>-23.5</v>
       </c>
       <c r="T19" s="7">
         <v>1826620</v>
@@ -13338,9 +13357,9 @@
       <c r="R20" s="8">
         <v>-0.18629999999999999</v>
       </c>
-      <c r="S20" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.25900000000000001</v>
+      <c r="S20" s="44">
+        <f t="shared" si="0"/>
+        <v>-25.900000000000002</v>
       </c>
       <c r="T20" s="7">
         <v>1960761</v>
@@ -13404,9 +13423,9 @@
       <c r="R21" s="14">
         <v>0.2581</v>
       </c>
-      <c r="S21" s="34">
-        <f t="shared" si="0"/>
-        <v>0.18540000000000001</v>
+      <c r="S21" s="44">
+        <f t="shared" si="0"/>
+        <v>18.54</v>
       </c>
       <c r="T21" s="13">
         <v>3080985</v>
@@ -13470,9 +13489,9 @@
       <c r="R22" s="14">
         <v>0.25440000000000002</v>
       </c>
-      <c r="S22" s="34">
-        <f t="shared" si="0"/>
-        <v>0.18170000000000003</v>
+      <c r="S22" s="44">
+        <f t="shared" si="0"/>
+        <v>18.170000000000002</v>
       </c>
       <c r="T22" s="13">
         <v>2631596</v>
@@ -13536,9 +13555,9 @@
       <c r="R23" s="14">
         <v>0.17319999999999999</v>
       </c>
-      <c r="S23" s="34">
-        <f t="shared" si="0"/>
-        <v>0.10049999999999999</v>
+      <c r="S23" s="44">
+        <f t="shared" si="0"/>
+        <v>10.049999999999999</v>
       </c>
       <c r="T23" s="13">
         <v>731163</v>
@@ -13551,25 +13570,25 @@
       <c r="A24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>1</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="34">
         <v>232145</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="35">
         <v>0.60509999999999997</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="34">
         <v>144604</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="35">
         <v>0.37690000000000001</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="34">
         <v>5263</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="35">
         <v>1.37E-2</v>
       </c>
       <c r="I24" s="12">
@@ -13584,29 +13603,29 @@
       <c r="L24" s="14">
         <v>0</v>
       </c>
-      <c r="M24" s="35">
+      <c r="M24" s="34">
         <v>1362</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="35">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="36">
         <v>252</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="35">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="34">
         <v>87541</v>
       </c>
-      <c r="R24" s="36">
+      <c r="R24" s="35">
         <v>0.22819999999999999</v>
       </c>
-      <c r="S24" s="34">
-        <f t="shared" si="0"/>
-        <v>0.15549999999999997</v>
-      </c>
-      <c r="T24" s="35">
+      <c r="S24" s="44">
+        <f t="shared" si="0"/>
+        <v>15.549999999999997</v>
+      </c>
+      <c r="T24" s="34">
         <v>383626</v>
       </c>
       <c r="U24" s="6" t="s">
@@ -13617,25 +13636,25 @@
       <c r="A25" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>1</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="34">
         <v>189778</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <v>0.54610000000000003</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="34">
         <v>150669</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="35">
         <v>0.4335</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="34">
         <v>5373</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="35">
         <v>1.55E-2</v>
       </c>
       <c r="I25" s="12">
@@ -13650,29 +13669,29 @@
       <c r="L25" s="14">
         <v>0</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25" s="34">
         <v>1538</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="35">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="36">
         <v>179</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="35">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25" s="34">
         <v>39109</v>
       </c>
-      <c r="R25" s="36">
+      <c r="R25" s="35">
         <v>0.1125</v>
       </c>
-      <c r="S25" s="34">
-        <f t="shared" si="0"/>
-        <v>3.9800000000000002E-2</v>
-      </c>
-      <c r="T25" s="35">
+      <c r="S25" s="44">
+        <f t="shared" si="0"/>
+        <v>3.9800000000000004</v>
+      </c>
+      <c r="T25" s="34">
         <v>347537</v>
       </c>
       <c r="U25" s="6" t="s">
@@ -13734,9 +13753,9 @@
       <c r="R26" s="14">
         <v>0.16470000000000001</v>
       </c>
-      <c r="S26" s="34">
-        <f t="shared" si="0"/>
-        <v>9.2000000000000012E-2</v>
+      <c r="S26" s="44">
+        <f t="shared" si="0"/>
+        <v>9.2000000000000011</v>
       </c>
       <c r="T26" s="13">
         <v>5001766</v>
@@ -13800,9 +13819,9 @@
       <c r="R27" s="14">
         <v>0.1024</v>
       </c>
-      <c r="S27" s="34">
-        <f t="shared" si="0"/>
-        <v>2.9700000000000004E-2</v>
+      <c r="S27" s="44">
+        <f t="shared" si="0"/>
+        <v>2.9700000000000006</v>
       </c>
       <c r="T27" s="13">
         <v>2910369</v>
@@ -13866,9 +13885,9 @@
       <c r="R28" s="8">
         <v>-1.2999999999999999E-3</v>
       </c>
-      <c r="S28" s="34">
-        <f t="shared" si="0"/>
-        <v>-7.3999999999999996E-2</v>
+      <c r="S28" s="44">
+        <f t="shared" si="0"/>
+        <v>-7.3999999999999995</v>
       </c>
       <c r="T28" s="7">
         <v>2925205</v>
@@ -13932,9 +13951,9 @@
       <c r="R29" s="8">
         <v>-0.13170000000000001</v>
       </c>
-      <c r="S29" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.20440000000000003</v>
+      <c r="S29" s="44">
+        <f t="shared" si="0"/>
+        <v>-20.440000000000001</v>
       </c>
       <c r="T29" s="7">
         <v>1289865</v>
@@ -13998,9 +14017,9 @@
       <c r="R30" s="8">
         <v>-2.2599999999999999E-2</v>
       </c>
-      <c r="S30" s="34">
-        <f t="shared" si="0"/>
-        <v>-9.5299999999999996E-2</v>
+      <c r="S30" s="44">
+        <f t="shared" si="0"/>
+        <v>-9.5299999999999994</v>
       </c>
       <c r="T30" s="7">
         <v>490302</v>
@@ -14064,9 +14083,9 @@
       <c r="R31" s="14">
         <v>3.3E-3</v>
       </c>
-      <c r="S31" s="34">
-        <f t="shared" si="0"/>
-        <v>-6.9400000000000003E-2</v>
+      <c r="S31" s="44">
+        <f t="shared" si="0"/>
+        <v>-6.94</v>
       </c>
       <c r="T31" s="13">
         <v>4310789</v>
@@ -14130,9 +14149,9 @@
       <c r="R32" s="8">
         <v>-8.6300000000000002E-2</v>
       </c>
-      <c r="S32" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.159</v>
+      <c r="S32" s="44">
+        <f t="shared" si="0"/>
+        <v>-15.9</v>
       </c>
       <c r="T32" s="7">
         <v>316621</v>
@@ -14196,9 +14215,9 @@
       <c r="R33" s="8">
         <v>-0.14929999999999999</v>
       </c>
-      <c r="S33" s="34">
-        <f t="shared" si="0"/>
-        <v>-0.22199999999999998</v>
+      <c r="S33" s="44">
+        <f t="shared" si="0"/>
+        <v>-22.199999999999996</v>
       </c>
       <c r="T33" s="7">
         <v>801281</v>
@@ -14211,43 +14230,43 @@
       <c r="A34" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="40">
+      <c r="B34" s="39">
         <v>1</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="37">
         <v>121411</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="38">
         <v>0.44330000000000003</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="37">
         <v>148179</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="38">
         <v>0.54100000000000004</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="37">
         <v>1963</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="38">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="39">
         <v>922</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="38">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="37">
         <v>1024</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="38">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="39">
         <v>394</v>
       </c>
-      <c r="N34" s="39">
+      <c r="N34" s="38">
         <v>1.4E-3</v>
       </c>
       <c r="O34" s="12">
@@ -14256,17 +14275,17 @@
       <c r="P34" s="14">
         <v>0</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="Q34" s="37">
         <v>-26768</v>
       </c>
-      <c r="R34" s="39">
+      <c r="R34" s="38">
         <v>-9.7699999999999995E-2</v>
       </c>
-      <c r="S34" s="34">
-        <f t="shared" ref="S34:S65" si="1">R34-$R$58</f>
-        <v>-0.1704</v>
-      </c>
-      <c r="T34" s="38">
+      <c r="S34" s="44">
+        <f t="shared" si="0"/>
+        <v>-17.04</v>
+      </c>
+      <c r="T34" s="37">
         <v>273893</v>
       </c>
       <c r="U34" s="6" t="s">
@@ -14277,43 +14296,43 @@
       <c r="A35" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>1</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="34">
         <v>138809</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="35">
         <v>0.49969999999999998</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="34">
         <v>135439</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="35">
         <v>0.48749999999999999</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="34">
         <v>1628</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="35">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="34">
         <v>1014</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="35">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="36">
         <v>599</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="35">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="36">
         <v>320</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="35">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="O35" s="12">
@@ -14322,17 +14341,17 @@
       <c r="P35" s="14">
         <v>0</v>
       </c>
-      <c r="Q35" s="35">
+      <c r="Q35" s="34">
         <v>3370</v>
       </c>
-      <c r="R35" s="36">
+      <c r="R35" s="35">
         <v>1.21E-2</v>
       </c>
-      <c r="S35" s="34">
-        <f t="shared" si="1"/>
-        <v>-6.0600000000000001E-2</v>
-      </c>
-      <c r="T35" s="35">
+      <c r="S35" s="44">
+        <f t="shared" si="0"/>
+        <v>-6.0600000000000005</v>
+      </c>
+      <c r="T35" s="34">
         <v>277809</v>
       </c>
       <c r="U35" s="6" t="s">
@@ -14343,43 +14362,43 @@
       <c r="A36" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="39">
         <v>1</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="37">
         <v>73099</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="38">
         <v>0.29630000000000001</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="37">
         <v>169361</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="38">
         <v>0.68640000000000001</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="37">
         <v>1815</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="38">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="39">
         <v>804</v>
       </c>
-      <c r="J36" s="39">
+      <c r="J36" s="38">
         <v>3.3E-3</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="37">
         <v>1349</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="38">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="39">
         <v>314</v>
       </c>
-      <c r="N36" s="39">
+      <c r="N36" s="38">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="O36" s="12">
@@ -14388,17 +14407,17 @@
       <c r="P36" s="14">
         <v>0</v>
       </c>
-      <c r="Q36" s="38">
+      <c r="Q36" s="37">
         <v>-96262</v>
       </c>
-      <c r="R36" s="39">
+      <c r="R36" s="38">
         <v>-0.3901</v>
       </c>
-      <c r="S36" s="34">
-        <f t="shared" si="1"/>
-        <v>-0.46279999999999999</v>
-      </c>
-      <c r="T36" s="38">
+      <c r="S36" s="44">
+        <f t="shared" si="0"/>
+        <v>-46.28</v>
+      </c>
+      <c r="T36" s="37">
         <v>246742</v>
       </c>
       <c r="U36" s="6" t="s">
@@ -14460,9 +14479,9 @@
       <c r="R37" s="14">
         <v>9.6100000000000005E-2</v>
       </c>
-      <c r="S37" s="34">
-        <f t="shared" si="1"/>
-        <v>2.3400000000000004E-2</v>
+      <c r="S37" s="44">
+        <f t="shared" si="0"/>
+        <v>2.3400000000000003</v>
       </c>
       <c r="T37" s="13">
         <v>710970</v>
@@ -14526,9 +14545,9 @@
       <c r="R38" s="14">
         <v>0.15570000000000001</v>
       </c>
-      <c r="S38" s="34">
-        <f t="shared" si="1"/>
-        <v>8.3000000000000004E-2</v>
+      <c r="S38" s="44">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="T38" s="13">
         <v>3868237</v>
@@ -14592,9 +14611,9 @@
       <c r="R39" s="14">
         <v>0.15129999999999999</v>
       </c>
-      <c r="S39" s="34">
-        <f t="shared" si="1"/>
-        <v>7.8599999999999989E-2</v>
+      <c r="S39" s="44">
+        <f t="shared" si="0"/>
+        <v>7.8599999999999985</v>
       </c>
       <c r="T39" s="13">
         <v>830158</v>
@@ -14658,9 +14677,9 @@
       <c r="R40" s="14">
         <v>0.1249</v>
       </c>
-      <c r="S40" s="34">
-        <f t="shared" si="1"/>
-        <v>5.2199999999999996E-2</v>
+      <c r="S40" s="44">
+        <f t="shared" si="0"/>
+        <v>5.22</v>
       </c>
       <c r="T40" s="13">
         <v>967848</v>
@@ -14724,9 +14743,9 @@
       <c r="R41" s="14">
         <v>0.26860000000000001</v>
       </c>
-      <c r="S41" s="34">
-        <f t="shared" si="1"/>
-        <v>0.19590000000000002</v>
+      <c r="S41" s="44">
+        <f t="shared" si="0"/>
+        <v>19.590000000000003</v>
       </c>
       <c r="T41" s="13">
         <v>7640931</v>
@@ -14790,9 +14809,9 @@
       <c r="R42" s="14">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="S42" s="34">
-        <f t="shared" si="1"/>
-        <v>-2.6799999999999997E-2</v>
+      <c r="S42" s="44">
+        <f t="shared" si="0"/>
+        <v>-2.6799999999999997</v>
       </c>
       <c r="T42" s="13">
         <v>5708350</v>
@@ -14856,9 +14875,9 @@
       <c r="R43" s="8">
         <v>-0.31290000000000001</v>
       </c>
-      <c r="S43" s="34">
-        <f t="shared" si="1"/>
-        <v>-0.3856</v>
+      <c r="S43" s="44">
+        <f t="shared" si="0"/>
+        <v>-38.56</v>
       </c>
       <c r="T43" s="7">
         <v>1462661</v>
@@ -14922,9 +14941,9 @@
       <c r="R44" s="14">
         <v>0.16350000000000001</v>
       </c>
-      <c r="S44" s="34">
-        <f t="shared" si="1"/>
-        <v>9.0800000000000006E-2</v>
+      <c r="S44" s="44">
+        <f t="shared" si="0"/>
+        <v>9.08</v>
       </c>
       <c r="T44" s="13">
         <v>1827864</v>
@@ -14988,9 +15007,9 @@
       <c r="R45" s="14">
         <v>0.1032</v>
       </c>
-      <c r="S45" s="34">
-        <f t="shared" si="1"/>
-        <v>3.0499999999999999E-2</v>
+      <c r="S45" s="44">
+        <f t="shared" si="0"/>
+        <v>3.05</v>
       </c>
       <c r="T45" s="13">
         <v>6013272</v>
@@ -15054,9 +15073,9 @@
       <c r="R46" s="14">
         <v>0.27810000000000001</v>
       </c>
-      <c r="S46" s="34">
-        <f t="shared" si="1"/>
-        <v>0.20540000000000003</v>
+      <c r="S46" s="44">
+        <f t="shared" si="0"/>
+        <v>20.540000000000003</v>
       </c>
       <c r="T46" s="13">
         <v>471766</v>
@@ -15120,9 +15139,9 @@
       <c r="R47" s="8">
         <v>-8.9800000000000005E-2</v>
       </c>
-      <c r="S47" s="34">
-        <f t="shared" si="1"/>
-        <v>-0.16250000000000001</v>
+      <c r="S47" s="44">
+        <f t="shared" si="0"/>
+        <v>-16.25</v>
       </c>
       <c r="T47" s="7">
         <v>1920969</v>
@@ -15186,9 +15205,9 @@
       <c r="R48" s="8">
         <v>-8.4099999999999994E-2</v>
       </c>
-      <c r="S48" s="34">
-        <f t="shared" si="1"/>
-        <v>-0.15679999999999999</v>
+      <c r="S48" s="44">
+        <f t="shared" si="0"/>
+        <v>-15.68</v>
       </c>
       <c r="T48" s="7">
         <v>381975</v>
@@ -15252,9 +15271,9 @@
       <c r="R49" s="8">
         <v>-0.1507</v>
       </c>
-      <c r="S49" s="34">
-        <f t="shared" si="1"/>
-        <v>-0.22339999999999999</v>
+      <c r="S49" s="44">
+        <f t="shared" si="0"/>
+        <v>-22.34</v>
       </c>
       <c r="T49" s="7">
         <v>2599749</v>
@@ -15318,9 +15337,9 @@
       <c r="R50" s="8">
         <v>-0.1177</v>
       </c>
-      <c r="S50" s="34">
-        <f t="shared" si="1"/>
-        <v>-0.19040000000000001</v>
+      <c r="S50" s="44">
+        <f t="shared" si="0"/>
+        <v>-19.040000000000003</v>
       </c>
       <c r="T50" s="7">
         <v>8077795</v>
@@ -15384,9 +15403,9 @@
       <c r="R51" s="8">
         <v>-0.28179999999999999</v>
       </c>
-      <c r="S51" s="34">
-        <f t="shared" si="1"/>
-        <v>-0.35449999999999998</v>
+      <c r="S51" s="44">
+        <f t="shared" si="0"/>
+        <v>-35.449999999999996</v>
       </c>
       <c r="T51" s="7">
         <v>952370</v>
@@ -15450,9 +15469,9 @@
       <c r="R52" s="14">
         <v>6.3E-2</v>
       </c>
-      <c r="S52" s="34">
-        <f t="shared" si="1"/>
-        <v>-9.7000000000000003E-3</v>
+      <c r="S52" s="44">
+        <f t="shared" si="0"/>
+        <v>-0.97</v>
       </c>
       <c r="T52" s="13">
         <v>3723260</v>
@@ -15516,9 +15535,9 @@
       <c r="R53" s="14">
         <v>0.37009999999999998</v>
       </c>
-      <c r="S53" s="34">
-        <f t="shared" si="1"/>
-        <v>0.2974</v>
+      <c r="S53" s="44">
+        <f t="shared" si="0"/>
+        <v>29.74</v>
       </c>
       <c r="T53" s="13">
         <v>325046</v>
@@ -15582,9 +15601,9 @@
       <c r="R54" s="14">
         <v>0.17180000000000001</v>
       </c>
-      <c r="S54" s="34">
-        <f t="shared" si="1"/>
-        <v>9.9100000000000008E-2</v>
+      <c r="S54" s="44">
+        <f t="shared" si="0"/>
+        <v>9.91</v>
       </c>
       <c r="T54" s="13">
         <v>3036878</v>
@@ -15648,9 +15667,9 @@
       <c r="R55" s="14">
         <v>0.13900000000000001</v>
       </c>
-      <c r="S55" s="34">
-        <f t="shared" si="1"/>
-        <v>6.6300000000000012E-2</v>
+      <c r="S55" s="44">
+        <f t="shared" si="0"/>
+        <v>6.6300000000000008</v>
       </c>
       <c r="T55" s="13">
         <v>2983417</v>
@@ -15714,9 +15733,9 @@
       <c r="R56" s="8">
         <v>-0.13120000000000001</v>
       </c>
-      <c r="S56" s="34">
-        <f t="shared" si="1"/>
-        <v>-0.20390000000000003</v>
+      <c r="S56" s="44">
+        <f t="shared" si="0"/>
+        <v>-20.390000000000004</v>
       </c>
       <c r="T56" s="7">
         <v>713451</v>
@@ -15780,9 +15799,9 @@
       <c r="R57" s="8">
         <v>-0.32240000000000002</v>
       </c>
-      <c r="S57" s="34">
-        <f t="shared" si="1"/>
-        <v>-0.39510000000000001</v>
+      <c r="S57" s="44">
+        <f t="shared" si="0"/>
+        <v>-39.51</v>
       </c>
       <c r="T57" s="7">
         <v>254658</v>
@@ -15915,4 +15934,1933 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E085508E-9BB8-4954-AF4F-C37C49E700F0}">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H57" sqref="H2:H57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="26"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="30">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>131199</v>
+      </c>
+      <c r="D2">
+        <v>149779</v>
+      </c>
+      <c r="E2">
+        <v>282166</v>
+      </c>
+      <c r="F2" s="7">
+        <f>C2-D2</f>
+        <v>-18580</v>
+      </c>
+      <c r="G2" s="8">
+        <f>F2/E2</f>
+        <v>-6.5847763373333423E-2</v>
+      </c>
+      <c r="H2" s="44">
+        <f t="shared" ref="H2:H56" si="0">100*(G2-$G$58)</f>
+        <v>-15.128772384223833</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>678687</v>
+      </c>
+      <c r="D3" s="7">
+        <v>975737</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1659895</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F57" si="1">C3-D3</f>
+        <v>-297050</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G57" si="2">F3/E3</f>
+        <v>-0.17895710270830384</v>
+      </c>
+      <c r="H3" s="44">
+        <f t="shared" si="0"/>
+        <v>-26.439706317720873</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="30">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>312978</v>
+      </c>
+      <c r="D4" s="7">
+        <v>556339</v>
+      </c>
+      <c r="E4" s="7">
+        <v>889158</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="1"/>
+        <v>-243361</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.27369826285092186</v>
+      </c>
+      <c r="H4" s="44">
+        <f t="shared" si="0"/>
+        <v>-35.913822331982672</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="30">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1179193</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1139251</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2341270</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>39942</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7059971724747679E-2</v>
+      </c>
+      <c r="H5" s="44">
+        <f t="shared" si="0"/>
+        <v>-6.837998874415721</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="29">
+        <v>55</v>
+      </c>
+      <c r="C6" s="13">
+        <v>8010445</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3973396</v>
+      </c>
+      <c r="E6" s="13">
+        <v>12184522</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>4037049</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.33132600523844924</v>
+      </c>
+      <c r="H6" s="44">
+        <f t="shared" si="0"/>
+        <v>24.588604476954433</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="29">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1343221</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1079772</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2513907</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>263449</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10479663726621549</v>
+      </c>
+      <c r="H7" s="44">
+        <f t="shared" si="0"/>
+        <v>1.9356676797310595</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="29">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13">
+        <v>808652</v>
+      </c>
+      <c r="D8" s="13">
+        <v>512495</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1379808</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>296157</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21463638419258332</v>
+      </c>
+      <c r="H8" s="44">
+        <f t="shared" si="0"/>
+        <v>12.919642372367843</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="29">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>199124</v>
+      </c>
+      <c r="D9" s="13">
+        <v>9700</v>
+      </c>
+      <c r="E9" s="12">
+        <v>228769</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>189424</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.82801428515227149</v>
+      </c>
+      <c r="H9" s="44">
+        <f t="shared" si="0"/>
+        <v>74.25743246833666</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="29">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13">
+        <v>227353</v>
+      </c>
+      <c r="D10" s="13">
+        <v>125384</v>
+      </c>
+      <c r="E10" s="13">
+        <v>353814</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>101969</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>0.28819944942823067</v>
+      </c>
+      <c r="H10" s="44">
+        <f t="shared" si="0"/>
+        <v>20.275948895932576</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="29">
+        <v>27</v>
+      </c>
+      <c r="C11" s="13">
+        <v>4089472</v>
+      </c>
+      <c r="D11" s="13">
+        <v>4099505</v>
+      </c>
+      <c r="E11" s="13">
+        <v>8190005</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>-10033</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="2"/>
+        <v>-1.2250297771490982E-3</v>
+      </c>
+      <c r="H11" s="44">
+        <f t="shared" si="0"/>
+        <v>-8.6664990246053986</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="30">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1814469</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1987191</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3802343</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>-172722</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="2"/>
+        <v>-4.5425149703748453E-2</v>
+      </c>
+      <c r="H12" s="44">
+        <f t="shared" si="0"/>
+        <v>-13.086511017265334</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="29">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13">
+        <v>287921</v>
+      </c>
+      <c r="D13" s="13">
+        <v>87348</v>
+      </c>
+      <c r="E13" s="13">
+        <v>398657</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="1"/>
+        <v>200573</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.50312173121254611</v>
+      </c>
+      <c r="H13" s="44">
+        <f t="shared" si="0"/>
+        <v>41.768177074364118</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="29">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13">
+        <v>664676</v>
+      </c>
+      <c r="D14" s="13">
+        <v>612338</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1316442</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>52338</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="2"/>
+        <v>3.975716362741389E-2</v>
+      </c>
+      <c r="H14" s="44">
+        <f t="shared" si="0"/>
+        <v>-4.5682796841491005</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="30">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7">
+        <v>207303</v>
+      </c>
+      <c r="D15" s="7">
+        <v>367993</v>
+      </c>
+      <c r="E15" s="7">
+        <v>595724</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="1"/>
+        <v>-160690</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.26973900665408812</v>
+      </c>
+      <c r="H15" s="44">
+        <f t="shared" si="0"/>
+        <v>-35.517896712299304</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="29">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13">
+        <v>2757540</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1754449</v>
+      </c>
+      <c r="E16" s="13">
+        <v>4539704</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>1003091</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.22095956035900138</v>
+      </c>
+      <c r="H16" s="44">
+        <f t="shared" si="0"/>
+        <v>13.551959989009649</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="29">
+        <v>11</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1000104</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1247978</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2256149</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>-247874</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.109865970731543</v>
+      </c>
+      <c r="H17" s="44">
+        <f t="shared" si="0"/>
+        <v>-19.530593120044788</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="30">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>464380</v>
+      </c>
+      <c r="D18" s="7">
+        <v>563190</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1050322</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>-98810</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="2"/>
+        <v>-9.4075911958427988E-2</v>
+      </c>
+      <c r="H18" s="44">
+        <f t="shared" si="0"/>
+        <v>-17.951587242733289</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="30">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7">
+        <v>612977</v>
+      </c>
+      <c r="D19" s="7">
+        <v>935304</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1569798</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>-322327</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.20533023994169949</v>
+      </c>
+      <c r="H19" s="44">
+        <f t="shared" si="0"/>
+        <v>-29.077020041060443</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="30">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7">
+        <v>553184</v>
+      </c>
+      <c r="D20" s="7">
+        <v>835715</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1460593</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>-282531</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.19343581682234545</v>
+      </c>
+      <c r="H20" s="44">
+        <f t="shared" si="0"/>
+        <v>-27.887577729125034</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="29">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1943595</v>
+      </c>
+      <c r="D21" s="13">
+        <v>497953</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2752665</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>1445642</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.5251790537533626</v>
+      </c>
+      <c r="H21" s="44">
+        <f t="shared" si="0"/>
+        <v>43.973909328445771</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="29">
+        <v>10</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1493047</v>
+      </c>
+      <c r="D22" s="13">
+        <v>737906</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2299889</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>755141</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32833801979138993</v>
+      </c>
+      <c r="H22" s="44">
+        <f t="shared" si="0"/>
+        <v>24.289805932248505</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" s="29">
+        <v>4</v>
+      </c>
+      <c r="C23" s="13">
+        <v>343635</v>
+      </c>
+      <c r="D23" s="13">
+        <v>250119</v>
+      </c>
+      <c r="E23" s="13">
+        <v>631334</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>93516</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.14812444759826018</v>
+      </c>
+      <c r="H23" s="44">
+        <f t="shared" si="0"/>
+        <v>6.2684487129355286</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="42">
+        <v>1</v>
+      </c>
+      <c r="C24" s="34">
+        <v>201195</v>
+      </c>
+      <c r="D24" s="34">
+        <v>111188</v>
+      </c>
+      <c r="E24" s="34">
+        <v>349963</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>90007</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25719004580484223</v>
+      </c>
+      <c r="H24" s="44">
+        <f t="shared" si="0"/>
+        <v>17.175008533593733</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="42">
+        <v>1</v>
+      </c>
+      <c r="C25" s="34">
+        <v>142440</v>
+      </c>
+      <c r="D25" s="34">
+        <v>138931</v>
+      </c>
+      <c r="E25" s="34">
+        <v>281371</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>3509</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="2"/>
+        <v>1.2471079109076629E-2</v>
+      </c>
+      <c r="H25" s="44">
+        <f t="shared" si="0"/>
+        <v>-7.2968881359828259</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="29">
+        <v>17</v>
+      </c>
+      <c r="C26" s="13">
+        <v>2175003</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1853459</v>
+      </c>
+      <c r="E26" s="13">
+        <v>4154703</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>321544</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="2"/>
+        <v>7.7392776330823171E-2</v>
+      </c>
+      <c r="H26" s="44">
+        <f t="shared" si="0"/>
+        <v>-0.80471841380817255</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="29">
+        <v>10</v>
+      </c>
+      <c r="C27" s="13">
+        <f>363537+1057232</f>
+        <v>1420769</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1125533</v>
+      </c>
+      <c r="E27" s="13">
+        <v>2576996</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>295236</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="2"/>
+        <v>0.11456595198440354</v>
+      </c>
+      <c r="H27" s="44">
+        <f t="shared" si="0"/>
+        <v>2.9125991515498648</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="30">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1027969</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1330975</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2418413</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>-303006</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.12529125505031605</v>
+      </c>
+      <c r="H28" s="44">
+        <f t="shared" si="0"/>
+        <v>-21.073121551922096</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="30">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7">
+        <v>804238</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1189266</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2012533</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="1"/>
+        <v>-385028</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.19131512377685236</v>
+      </c>
+      <c r="H29" s="44">
+        <f t="shared" si="0"/>
+        <v>-27.675508424575725</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>233284</v>
+      </c>
+      <c r="D30" s="7">
+        <v>256661</v>
+      </c>
+      <c r="E30" s="7">
+        <v>504421</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="1"/>
+        <v>-23377</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="2"/>
+        <v>-4.6344224368136934E-2</v>
+      </c>
+      <c r="H30" s="44">
+        <f t="shared" si="0"/>
+        <v>-13.178418483704183</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="29">
+        <v>15</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1632720</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1706795</v>
+      </c>
+      <c r="E31" s="13">
+        <v>3380609</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="1"/>
+        <v>-74075</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="2"/>
+        <v>-2.1911732471871191E-2</v>
+      </c>
+      <c r="H31" s="44">
+        <f t="shared" si="0"/>
+        <v>-10.735169294077609</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="30">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>114377</v>
+      </c>
+      <c r="D32" s="7">
+        <v>193568</v>
+      </c>
+      <c r="E32" s="7">
+        <v>321532</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="1"/>
+        <v>-79191</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.24629274846671559</v>
+      </c>
+      <c r="H32" s="44">
+        <f t="shared" si="0"/>
+        <v>-33.173270893562048</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" s="30">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7">
+        <v>264493</v>
+      </c>
+      <c r="D33" s="7">
+        <v>432077</v>
+      </c>
+      <c r="E33" s="7">
+        <v>696570</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="1"/>
+        <v>-167584</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.24058457872144939</v>
+      </c>
+      <c r="H33" s="44">
+        <f t="shared" si="0"/>
+        <v>-32.602453919035426</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="43">
+        <v>1</v>
+      </c>
+      <c r="C34" s="37">
+        <v>93069</v>
+      </c>
+      <c r="D34" s="37">
+        <v>141712</v>
+      </c>
+      <c r="E34" s="37">
+        <v>234781</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="1"/>
+        <v>-48643</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.20718456774611232</v>
+      </c>
+      <c r="H34" s="44">
+        <f t="shared" si="0"/>
+        <v>-29.262452821501721</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="42">
+        <v>1</v>
+      </c>
+      <c r="C35" s="34">
+        <v>121770</v>
+      </c>
+      <c r="D35" s="34">
+        <v>126715</v>
+      </c>
+      <c r="E35" s="34">
+        <v>248485</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="1"/>
+        <v>-4945</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="2"/>
+        <v>-1.9900597621586816E-2</v>
+      </c>
+      <c r="H35" s="44">
+        <f t="shared" si="0"/>
+        <v>-10.534055809049171</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="43">
+        <v>1</v>
+      </c>
+      <c r="C36" s="37">
+        <v>49654</v>
+      </c>
+      <c r="D36" s="37">
+        <v>163650</v>
+      </c>
+      <c r="E36" s="37">
+        <v>213304</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="1"/>
+        <v>-113996</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.53442973408843719</v>
+      </c>
+      <c r="H36" s="44">
+        <f t="shared" si="0"/>
+        <v>-61.986969455734211</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="29">
+        <v>4</v>
+      </c>
+      <c r="C37" s="13">
+        <v>311242</v>
+      </c>
+      <c r="D37" s="13">
+        <v>248986</v>
+      </c>
+      <c r="E37" s="13">
+        <v>570744</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="1"/>
+        <v>62256</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10907867625415248</v>
+      </c>
+      <c r="H37" s="44">
+        <f t="shared" si="0"/>
+        <v>2.3638715785247579</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="29">
+        <v>15</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1856819</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1198664</v>
+      </c>
+      <c r="E38" s="13">
+        <v>3098743</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="1"/>
+        <v>658155</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21239418693321777</v>
+      </c>
+      <c r="H38" s="44">
+        <f t="shared" si="0"/>
+        <v>12.695422646431286</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="29">
+        <v>5</v>
+      </c>
+      <c r="C39" s="13">
+        <v>404026</v>
+      </c>
+      <c r="D39" s="13">
+        <v>264701</v>
+      </c>
+      <c r="E39" s="13">
+        <v>693311</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="1"/>
+        <v>139325</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="2"/>
+        <v>0.20095599233244532</v>
+      </c>
+      <c r="H39" s="44">
+        <f t="shared" si="0"/>
+        <v>11.551603186354043</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="29">
+        <v>5</v>
+      </c>
+      <c r="C40" s="13">
+        <v>491272</v>
+      </c>
+      <c r="D40" s="13">
+        <v>439727</v>
+      </c>
+      <c r="E40" s="13">
+        <v>960774</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="1"/>
+        <v>51545</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="2"/>
+        <v>5.3649453461480014E-2</v>
+      </c>
+      <c r="H40" s="44">
+        <f t="shared" si="0"/>
+        <v>-3.1790507007424882</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="29">
+        <v>31</v>
+      </c>
+      <c r="C41" s="13">
+        <v>3760566</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1639593</v>
+      </c>
+      <c r="E41" s="13">
+        <v>6250885</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="1"/>
+        <v>2120973</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="2"/>
+        <v>0.33930763403902009</v>
+      </c>
+      <c r="H41" s="44">
+        <f t="shared" si="0"/>
+        <v>25.386767357011518</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="29">
+        <v>20</v>
+      </c>
+      <c r="C42" s="13">
+        <v>2082684</v>
+      </c>
+      <c r="D42" s="13">
+        <v>2291333</v>
+      </c>
+      <c r="E42" s="13">
+        <v>4406358</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="1"/>
+        <v>-208649</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="2"/>
+        <v>-4.7351803916068552E-2</v>
+      </c>
+      <c r="H42" s="44">
+        <f t="shared" si="0"/>
+        <v>-13.279176438497345</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="30">
+        <v>7</v>
+      </c>
+      <c r="C43" s="7">
+        <v>482452</v>
+      </c>
+      <c r="D43" s="7">
+        <v>730531</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1178836</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="1"/>
+        <v>-248079</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.21044403123080735</v>
+      </c>
+      <c r="H43" s="44">
+        <f t="shared" si="0"/>
+        <v>-29.588399169971225</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="29">
+        <v>7</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1061412</v>
+      </c>
+      <c r="D44" s="13">
+        <v>702531</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1847646</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" si="1"/>
+        <v>358881</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19423688303928349</v>
+      </c>
+      <c r="H44" s="44">
+        <f t="shared" si="0"/>
+        <v>10.87969225703786</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="29">
+        <v>21</v>
+      </c>
+      <c r="C45" s="13">
+        <v>2712665</v>
+      </c>
+      <c r="D45" s="13">
+        <v>2206260</v>
+      </c>
+      <c r="E45" s="13">
+        <v>4929875</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="1"/>
+        <v>506405</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="2"/>
+        <v>0.10272167144197368</v>
+      </c>
+      <c r="H45" s="44">
+        <f t="shared" si="0"/>
+        <v>1.7281710973068785</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="29">
+        <v>4</v>
+      </c>
+      <c r="C46" s="13">
+        <v>242575</v>
+      </c>
+      <c r="D46" s="13">
+        <v>129838</v>
+      </c>
+      <c r="E46" s="13">
+        <v>373280</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="1"/>
+        <v>112737</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="2"/>
+        <v>0.30201725246463779</v>
+      </c>
+      <c r="H46" s="44">
+        <f t="shared" si="0"/>
+        <v>21.657729199573289</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="30">
+        <v>8</v>
+      </c>
+      <c r="C47" s="7">
+        <v>758340</v>
+      </c>
+      <c r="D47" s="7">
+        <v>927494</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1709292</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="1"/>
+        <v>-169154</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="2"/>
+        <v>-9.8961441345305545E-2</v>
+      </c>
+      <c r="H47" s="44">
+        <f t="shared" si="0"/>
+        <v>-18.440140181421043</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="30">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>121033</v>
+      </c>
+      <c r="D48" s="7">
+        <v>202695</v>
+      </c>
+      <c r="E48" s="7">
+        <v>335965</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="1"/>
+        <v>-81662</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.24306698614439004</v>
+      </c>
+      <c r="H48" s="44">
+        <f t="shared" si="0"/>
+        <v>-32.850694661329491</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="30">
+        <v>11</v>
+      </c>
+      <c r="C49" s="7">
+        <v>846450</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1279655</v>
+      </c>
+      <c r="E49" s="7">
+        <v>2159825</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>-433205</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.2005741205884736</v>
+      </c>
+      <c r="H49" s="44">
+        <f t="shared" si="0"/>
+        <v>-28.601408105737846</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="30">
+        <v>34</v>
+      </c>
+      <c r="C50" s="7">
+        <v>3852752</v>
+      </c>
+      <c r="D50" s="7">
+        <v>4135359</v>
+      </c>
+      <c r="E50" s="7">
+        <v>8202555</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="1"/>
+        <v>-282607</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="2"/>
+        <v>-3.4453533075974499E-2</v>
+      </c>
+      <c r="H50" s="44">
+        <f t="shared" si="0"/>
+        <v>-11.98934935448794</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="30">
+        <v>5</v>
+      </c>
+      <c r="C51" s="7">
+        <v>374009</v>
+      </c>
+      <c r="D51" s="7">
+        <v>617307</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1052506</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="1"/>
+        <v>-243298</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.23116067746882202</v>
+      </c>
+      <c r="H51" s="44">
+        <f t="shared" si="0"/>
+        <v>-31.660063793772693</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="29">
+        <v>13</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1867061</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1408701</v>
+      </c>
+      <c r="E52" s="13">
+        <v>3312956</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" si="1"/>
+        <v>458360</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="2"/>
+        <v>0.13835378435451604</v>
+      </c>
+      <c r="H52" s="44">
+        <f t="shared" si="0"/>
+        <v>5.2913823885611135</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="29">
+        <v>3</v>
+      </c>
+      <c r="C53" s="13">
+        <v>188547</v>
+      </c>
+      <c r="D53" s="13">
+        <v>70705</v>
+      </c>
+      <c r="E53" s="13">
+        <v>278230</v>
+      </c>
+      <c r="F53" s="7">
+        <f t="shared" si="1"/>
+        <v>117842</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" si="2"/>
+        <v>0.42354167415447652</v>
+      </c>
+      <c r="H53" s="44">
+        <f t="shared" si="0"/>
+        <v>33.810171368557164</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="29">
+        <v>11</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1888593</v>
+      </c>
+      <c r="D54" s="13">
+        <v>899744</v>
+      </c>
+      <c r="E54" s="13">
+        <v>3021951</v>
+      </c>
+      <c r="F54" s="7">
+        <f t="shared" si="1"/>
+        <v>988849</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32722204959643619</v>
+      </c>
+      <c r="H54" s="44">
+        <f t="shared" si="0"/>
+        <v>24.178208912753128</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="29">
+        <v>10</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1367492</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1172964</v>
+      </c>
+      <c r="E55" s="13">
+        <v>2571655</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="1"/>
+        <v>194528</v>
+      </c>
+      <c r="G55" s="8">
+        <f t="shared" si="2"/>
+        <v>7.5643116981088054E-2</v>
+      </c>
+      <c r="H55" s="44">
+        <f t="shared" si="0"/>
+        <v>-0.9796843487816842</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="30">
+        <v>5</v>
+      </c>
+      <c r="C56" s="7">
+        <v>234568</v>
+      </c>
+      <c r="D56" s="7">
+        <v>337146</v>
+      </c>
+      <c r="E56" s="7">
+        <v>577991</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="1"/>
+        <v>-102578</v>
+      </c>
+      <c r="G56" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.17747335166118502</v>
+      </c>
+      <c r="H56" s="44">
+        <f t="shared" si="0"/>
+        <v>-26.291331213008995</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="30">
+        <v>3</v>
+      </c>
+      <c r="C57" s="7">
+        <v>59903</v>
+      </c>
+      <c r="D57" s="7">
+        <v>127963</v>
+      </c>
+      <c r="E57" s="7">
+        <v>205275</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" si="1"/>
+        <v>-68060</v>
+      </c>
+      <c r="G57" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.33155523078796734</v>
+      </c>
+      <c r="H57" s="44">
+        <f>100*(G57-$G$58)</f>
+        <v>-41.699519125687225</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B58" s="23">
+        <v>538</v>
+      </c>
+      <c r="C58" s="24">
+        <f>SUM(C2:C57)</f>
+        <v>62368597</v>
+      </c>
+      <c r="D58" s="24">
+        <f>SUM(D2:D57)</f>
+        <v>52301269</v>
+      </c>
+      <c r="E58" s="24">
+        <f>SUM(E2:E57)</f>
+        <v>117829268</v>
+      </c>
+      <c r="F58" s="24">
+        <f>C58-D58</f>
+        <v>10067328</v>
+      </c>
+      <c r="G58" s="25">
+        <f>F58/E58</f>
+        <v>8.5439960468904896E-2</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="2008 United States presidential election in Alaska" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Alaska" xr:uid="{758F35EC-0A01-47C8-988E-1F1E314AE9A6}"/>
+    <hyperlink ref="A5" r:id="rId2" tooltip="2008 United States presidential election in Arizona" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Arizona" xr:uid="{8D96EBE1-C02E-47D3-ACE7-AB6FCC08F4B9}"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="2008 United States presidential election in Arkansas" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Arkansas" xr:uid="{63357E32-4650-45AE-BB1A-49E30E2CB1AE}"/>
+    <hyperlink ref="A6" r:id="rId4" tooltip="2008 United States presidential election in California" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_California" xr:uid="{65F1A78B-90CB-4758-9BEE-4041568BE069}"/>
+    <hyperlink ref="A7" r:id="rId5" tooltip="2008 United States presidential election in Colorado" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Colorado" xr:uid="{53FAC331-8B69-4CEF-9D8D-B2714BAFD018}"/>
+    <hyperlink ref="A8" r:id="rId6" tooltip="2008 United States presidential election in Connecticut" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Connecticut" xr:uid="{3457BD0E-5EBB-44D1-968D-80A0F3F2AF9D}"/>
+    <hyperlink ref="A10" r:id="rId7" tooltip="2008 United States presidential election in Delaware" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Delaware" xr:uid="{5A22A8DD-DAAC-492E-BE6B-29BCF80D5E55}"/>
+    <hyperlink ref="A9" r:id="rId8" tooltip="2008 United States presidential election in the District of Columbia" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_the_District_of_Columbia" xr:uid="{87ED9983-BEE4-433C-B0C5-F9A94435FB20}"/>
+    <hyperlink ref="A11" r:id="rId9" tooltip="2008 United States presidential election in Florida" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Florida" xr:uid="{B1AC012F-CA2A-4714-9F34-ED947332B4FC}"/>
+    <hyperlink ref="A12" r:id="rId10" tooltip="2008 United States presidential election in Georgia" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Georgia" xr:uid="{5809C57E-B771-401C-963F-52903696E35B}"/>
+    <hyperlink ref="A13" r:id="rId11" tooltip="2008 United States presidential election in Hawaii" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Hawaii" xr:uid="{2209D536-2C58-411E-8FA2-D750A2D57732}"/>
+    <hyperlink ref="A15" r:id="rId12" tooltip="2008 United States presidential election in Idaho" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Idaho" xr:uid="{B7CCEF9B-7E61-4733-9560-370B628FB88D}"/>
+    <hyperlink ref="A16" r:id="rId13" tooltip="2008 United States presidential election in Illinois" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Illinois" xr:uid="{607BA6F0-4AE5-450B-ACB6-E181EF87B2BC}"/>
+    <hyperlink ref="A17" r:id="rId14" tooltip="2008 United States presidential election in Indiana" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Indiana" xr:uid="{E52A78E9-E8E6-495A-A296-115ADB2D273E}"/>
+    <hyperlink ref="A14" r:id="rId15" tooltip="2008 United States presidential election in Iowa" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Iowa" xr:uid="{8382A1ED-1D04-4173-A350-E8D219EEB5FC}"/>
+    <hyperlink ref="A18" r:id="rId16" tooltip="2008 United States presidential election in Kansas" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Kansas" xr:uid="{44107DF7-4C6B-454D-ADAD-9B70716BFC2F}"/>
+    <hyperlink ref="A19" r:id="rId17" tooltip="2008 United States presidential election in Kentucky" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Kentucky" xr:uid="{153BAAEB-06AE-40DC-94E1-B82D0319B02E}"/>
+    <hyperlink ref="A20" r:id="rId18" tooltip="2008 United States presidential election in Louisiana" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Louisiana" xr:uid="{72E48E46-5F56-4D24-BABF-07F139D8B051}"/>
+    <hyperlink ref="A23" r:id="rId19" tooltip="2008 United States presidential election in Maine" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Maine" xr:uid="{025B9050-A9CE-4BFF-8CCF-F460020D7BDA}"/>
+    <hyperlink ref="A22" r:id="rId20" tooltip="2008 United States presidential election in Maryland" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Maryland" xr:uid="{F3777749-82F4-47A5-A77E-49640EEEFCCA}"/>
+    <hyperlink ref="A21" r:id="rId21" tooltip="2008 United States presidential election in Massachusetts" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Massachusetts" xr:uid="{61DEAA37-2A82-461C-9CE6-5DC1720B476A}"/>
+    <hyperlink ref="A26" r:id="rId22" tooltip="2008 United States presidential election in Michigan" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Michigan" xr:uid="{4176D77F-31D6-40D1-A1A8-48D8F7591D35}"/>
+    <hyperlink ref="A27" r:id="rId23" tooltip="2008 United States presidential election in Minnesota" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Minnesota" xr:uid="{6779E6AF-A45E-4061-9CA7-8C3D866FA15A}"/>
+    <hyperlink ref="A29" r:id="rId24" tooltip="2008 United States presidential election in Mississippi" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Mississippi" xr:uid="{E3D65024-6FE7-4BDC-9BCD-C1BCEF52DDC5}"/>
+    <hyperlink ref="A28" r:id="rId25" tooltip="2008 United States presidential election in Missouri" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Missouri" xr:uid="{1CED3155-E57A-4B21-B211-4313076B63C4}"/>
+    <hyperlink ref="A30" r:id="rId26" tooltip="2008 United States presidential election in Montana" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Montana" xr:uid="{0E9D8AA0-307D-474A-8FB2-697043CAC59C}"/>
+    <hyperlink ref="A33" r:id="rId27" tooltip="2008 United States presidential election in Nebraska" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Nebraska" xr:uid="{6CA8D70E-5D1F-488D-910B-9F0BE58044D7}"/>
+    <hyperlink ref="A40" r:id="rId28" tooltip="2008 United States presidential election in Nevada" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Nevada" xr:uid="{9071DC5E-178F-407C-9159-0F226C637280}"/>
+    <hyperlink ref="A37" r:id="rId29" tooltip="2008 United States presidential election in New Hampshire" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_New_Hampshire" xr:uid="{4714DFB6-4366-4E3E-9DAF-5AF812FB3710}"/>
+    <hyperlink ref="A38" r:id="rId30" tooltip="2008 United States presidential election in New Jersey" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_New_Jersey" xr:uid="{51E469E6-395E-46FF-95D3-CBDEBB73519B}"/>
+    <hyperlink ref="A39" r:id="rId31" tooltip="2008 United States presidential election in New Mexico" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_New_Mexico" xr:uid="{E5C6BB8A-B94A-4A4B-A247-D4AACBADD677}"/>
+    <hyperlink ref="A41" r:id="rId32" tooltip="2008 United States presidential election in New York" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_New_York" xr:uid="{6689C9E8-44C9-4F91-901B-7724AF0905B2}"/>
+    <hyperlink ref="A31" r:id="rId33" tooltip="2008 United States presidential election in North Carolina" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_North_Carolina" xr:uid="{80586F5B-ABA2-48E5-8A8A-69A0EB83493D}"/>
+    <hyperlink ref="A32" r:id="rId34" tooltip="2008 United States presidential election in North Dakota" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_North_Dakota" xr:uid="{4A5DB606-9FED-4B93-AC46-8904F3D18491}"/>
+    <hyperlink ref="A42" r:id="rId35" tooltip="2008 United States presidential election in Ohio" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Ohio" xr:uid="{3E0AD912-A2EF-4C89-8E26-D36DD2B1E575}"/>
+    <hyperlink ref="A43" r:id="rId36" tooltip="2008 United States presidential election in Oklahoma" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Oklahoma" xr:uid="{8D1C594D-1D4B-4E4C-8E9F-B8DE6E72AB3E}"/>
+    <hyperlink ref="A44" r:id="rId37" tooltip="2008 United States presidential election in Oregon" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Oregon" xr:uid="{F1BE08DA-D6EA-4EC3-8FD0-8A70249E34F5}"/>
+    <hyperlink ref="A45" r:id="rId38" tooltip="2008 United States presidential election in Pennsylvania" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Pennsylvania" xr:uid="{A9C59D4F-BBB6-4C53-879B-051AFCFAA21B}"/>
+    <hyperlink ref="A46" r:id="rId39" tooltip="2008 United States presidential election in Rhode Island" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Rhode_Island" xr:uid="{75E51E14-FC7A-4AA2-A364-8F19FBE56499}"/>
+    <hyperlink ref="A47" r:id="rId40" tooltip="2008 United States presidential election in South Carolina" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_South_Carolina" xr:uid="{AB302689-C1F7-4AF9-B4F3-7D7F778085F6}"/>
+    <hyperlink ref="A48" r:id="rId41" tooltip="2008 United States presidential election in South Dakota" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_South_Dakota" xr:uid="{A1050D0B-749E-4B29-BD6B-8F65672334D8}"/>
+    <hyperlink ref="A49" r:id="rId42" tooltip="2008 United States presidential election in Tennessee" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Tennessee" xr:uid="{6C41858B-0F6C-4C5D-808E-524B2F5BD7D1}"/>
+    <hyperlink ref="A50" r:id="rId43" tooltip="2008 United States presidential election in Texas" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Texas" xr:uid="{CDE206CC-2842-4311-BF38-A59084F79A35}"/>
+    <hyperlink ref="A51" r:id="rId44" tooltip="2008 United States presidential election in Utah" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Utah" xr:uid="{848F34E2-57C0-48D2-A6CD-EDD39CE848C7}"/>
+    <hyperlink ref="A53" r:id="rId45" tooltip="2008 United States presidential election in Vermont" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Vermont" xr:uid="{1578A8E4-99DC-4C9C-A919-26D90604A431}"/>
+    <hyperlink ref="A52" r:id="rId46" tooltip="2008 United States presidential election in Virginia" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Virginia" xr:uid="{257B37F6-319C-4C86-B908-463F68F8586B}"/>
+    <hyperlink ref="A54" r:id="rId47" tooltip="2008 United States presidential election in Washington (state)" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Washington_(state)" xr:uid="{0FC3B0DB-0A68-43F3-90F9-A3F302B8DAC4}"/>
+    <hyperlink ref="A56" r:id="rId48" tooltip="2008 United States presidential election in West Virginia" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_West_Virginia" xr:uid="{C9A0584C-8116-49C0-948F-1E9DE669246C}"/>
+    <hyperlink ref="A55" r:id="rId49" tooltip="2008 United States presidential election in Wisconsin" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Wisconsin" xr:uid="{D3EC62FA-F356-451D-ADBF-E98D3ADE3A1C}"/>
+    <hyperlink ref="A57" r:id="rId50" tooltip="2008 United States presidential election in Wyoming" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Wyoming" xr:uid="{73A4004E-5D22-40AC-812A-82A4F506D7CE}"/>
+    <hyperlink ref="A3" r:id="rId51" tooltip="2008 United States presidential election in Alabama" display="https://en.wikipedia.org/wiki/2008_United_States_presidential_election_in_Alabama" xr:uid="{09BD9FB0-63DF-4FFA-9BD4-2B5D9CE4ABB7}"/>
+    <hyperlink ref="A24" r:id="rId52" tooltip="Maine's 1st congressional district" display="https://en.wikipedia.org/wiki/Maine%27s_1st_congressional_district" xr:uid="{46931016-14D2-49A1-826A-3F3B8838794B}"/>
+    <hyperlink ref="A25" r:id="rId53" tooltip="Maine's 1st congressional district" display="https://en.wikipedia.org/wiki/Maine%27s_1st_congressional_district" xr:uid="{700BED74-0CDE-41A5-8980-52D7C6DFCB7B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>